--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R345"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18034,6 +18034,290 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="n">
+        <v>302.4066666666667</v>
+      </c>
+      <c r="D346" t="n">
+        <v>294.4227272727272</v>
+      </c>
+      <c r="E346" t="n">
+        <v>300.7028571428572</v>
+      </c>
+      <c r="F346" t="n">
+        <v>311.9888888888889</v>
+      </c>
+      <c r="G346" t="n">
+        <v>334.94</v>
+      </c>
+      <c r="H346" t="n">
+        <v>322.5627272727273</v>
+      </c>
+      <c r="I346" t="n">
+        <v>304.9020689655173</v>
+      </c>
+      <c r="J346" t="n">
+        <v>297.6844444444445</v>
+      </c>
+      <c r="K346" t="n">
+        <v>298.6033333333333</v>
+      </c>
+      <c r="L346" t="n">
+        <v>314.8866666666667</v>
+      </c>
+      <c r="M346" t="n">
+        <v>315.4127272727272</v>
+      </c>
+      <c r="N346" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="O346" t="n">
+        <v>336.7433333333333</v>
+      </c>
+      <c r="P346" t="n">
+        <v>351.0166666666667</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>336.7166666666667</v>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="n">
+        <v>306.28</v>
+      </c>
+      <c r="D347" t="n">
+        <v>297.3509090909091</v>
+      </c>
+      <c r="E347" t="n">
+        <v>309.2285714285715</v>
+      </c>
+      <c r="F347" t="n">
+        <v>325.6833333333333</v>
+      </c>
+      <c r="G347" t="n">
+        <v>349.63</v>
+      </c>
+      <c r="H347" t="n">
+        <v>346.5809090909091</v>
+      </c>
+      <c r="I347" t="n">
+        <v>331.1424137931035</v>
+      </c>
+      <c r="J347" t="n">
+        <v>310.1866666666667</v>
+      </c>
+      <c r="K347" t="n">
+        <v>325.01</v>
+      </c>
+      <c r="L347" t="n">
+        <v>346.48</v>
+      </c>
+      <c r="M347" t="n">
+        <v>333.5109090909091</v>
+      </c>
+      <c r="N347" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="O347" t="n">
+        <v>346.2</v>
+      </c>
+      <c r="P347" t="n">
+        <v>352.97</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>350.73</v>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>331.2842857142857</v>
+      </c>
+      <c r="C348" t="n">
+        <v>317.7466666666667</v>
+      </c>
+      <c r="D348" t="n">
+        <v>304.7636363636364</v>
+      </c>
+      <c r="E348" t="n">
+        <v>312.4585714285714</v>
+      </c>
+      <c r="F348" t="n">
+        <v>311.1322222222223</v>
+      </c>
+      <c r="G348" t="n">
+        <v>331.41</v>
+      </c>
+      <c r="H348" t="n">
+        <v>318.9236363636364</v>
+      </c>
+      <c r="I348" t="n">
+        <v>313.97</v>
+      </c>
+      <c r="J348" t="n">
+        <v>299.4011111111111</v>
+      </c>
+      <c r="K348" t="n">
+        <v>312.8433333333333</v>
+      </c>
+      <c r="L348" t="n">
+        <v>318.3966666666667</v>
+      </c>
+      <c r="M348" t="n">
+        <v>324.6736363636364</v>
+      </c>
+      <c r="N348" t="n">
+        <v>333.23</v>
+      </c>
+      <c r="O348" t="n">
+        <v>330.0533333333333</v>
+      </c>
+      <c r="P348" t="n">
+        <v>332.9066666666667</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>339.7866666666667</v>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>335.6557142857143</v>
+      </c>
+      <c r="C349" t="n">
+        <v>321.65</v>
+      </c>
+      <c r="D349" t="n">
+        <v>320.0836363636364</v>
+      </c>
+      <c r="E349" t="n">
+        <v>313.7914285714286</v>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="n">
+        <v>322.87</v>
+      </c>
+      <c r="H349" t="n">
+        <v>310.2536363636364</v>
+      </c>
+      <c r="I349" t="n">
+        <v>306.1472413793103</v>
+      </c>
+      <c r="J349" t="n">
+        <v>307.4033333333333</v>
+      </c>
+      <c r="K349" t="n">
+        <v>308.17</v>
+      </c>
+      <c r="L349" t="n">
+        <v>309.24</v>
+      </c>
+      <c r="M349" t="n">
+        <v>320.7336363636364</v>
+      </c>
+      <c r="N349" t="n">
+        <v>339.63</v>
+      </c>
+      <c r="O349" t="n">
+        <v>330.95</v>
+      </c>
+      <c r="P349" t="n">
+        <v>332.39</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>331.33</v>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="n">
+        <v>326.57</v>
+      </c>
+      <c r="H350" t="n">
+        <v>329.1090909090909</v>
+      </c>
+      <c r="I350" t="n">
+        <v>319.6706896551724</v>
+      </c>
+      <c r="J350" t="n">
+        <v>312.3566666666667</v>
+      </c>
+      <c r="K350" t="n">
+        <v>308.3</v>
+      </c>
+      <c r="L350" t="n">
+        <v>333.41</v>
+      </c>
+      <c r="M350" t="n">
+        <v>343.449090909091</v>
+      </c>
+      <c r="N350" t="n">
+        <v>322.24</v>
+      </c>
+      <c r="O350" t="n">
+        <v>329.57</v>
+      </c>
+      <c r="P350" t="n">
+        <v>337.41</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>337.23</v>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18045,7 +18329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B369"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21743,6 +22027,56 @@
       </c>
       <c r="B369" t="n">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -21911,28 +22245,28 @@
         <v>0.0788</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06644256939607501</v>
+        <v>-0.06965921758218492</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K2" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007096004733830874</v>
+        <v>0.0007930978585928283</v>
       </c>
       <c r="M2" t="n">
-        <v>12.73523093942596</v>
+        <v>12.64598515798932</v>
       </c>
       <c r="N2" t="n">
-        <v>323.8508631315605</v>
+        <v>321.2674312071069</v>
       </c>
       <c r="O2" t="n">
-        <v>17.99585683238118</v>
+        <v>17.9239345905721</v>
       </c>
       <c r="P2" t="n">
-        <v>337.1622666798001</v>
+        <v>337.1946802911448</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -21988,28 +22322,28 @@
         <v>0.0683</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2106245900340602</v>
+        <v>-0.2077162226446278</v>
       </c>
       <c r="J3" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K3" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01214524503021774</v>
+        <v>0.01211550101861358</v>
       </c>
       <c r="M3" t="n">
-        <v>9.91584992607339</v>
+        <v>9.882353767533411</v>
       </c>
       <c r="N3" t="n">
-        <v>192.2363076040559</v>
+        <v>190.2823715410459</v>
       </c>
       <c r="O3" t="n">
-        <v>13.86493085464388</v>
+        <v>13.79428764166696</v>
       </c>
       <c r="P3" t="n">
-        <v>316.4077560808025</v>
+        <v>316.3783536871206</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22065,28 +22399,28 @@
         <v>0.0596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1872640845118174</v>
+        <v>-0.1862551858942572</v>
       </c>
       <c r="J4" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K4" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008439714969857626</v>
+        <v>0.008562540700464916</v>
       </c>
       <c r="M4" t="n">
-        <v>10.89317637779386</v>
+        <v>10.85353560847806</v>
       </c>
       <c r="N4" t="n">
-        <v>210.640344119742</v>
+        <v>208.9358781086853</v>
       </c>
       <c r="O4" t="n">
-        <v>14.51345390042432</v>
+        <v>14.45461442269164</v>
       </c>
       <c r="P4" t="n">
-        <v>308.6321009939115</v>
+        <v>308.6213709840014</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22142,28 +22476,28 @@
         <v>0.0418</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1675768167145038</v>
+        <v>-0.1329473209227091</v>
       </c>
       <c r="J5" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K5" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003186358441909287</v>
+        <v>0.00206245584342768</v>
       </c>
       <c r="M5" t="n">
-        <v>15.86249107585044</v>
+        <v>15.7846596128276</v>
       </c>
       <c r="N5" t="n">
-        <v>445.3215170759653</v>
+        <v>440.6321388856304</v>
       </c>
       <c r="O5" t="n">
-        <v>21.10264241927928</v>
+        <v>20.99123957477572</v>
       </c>
       <c r="P5" t="n">
-        <v>302.0784873440369</v>
+        <v>301.7221988934852</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22219,28 +22553,28 @@
         <v>0.0554</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0375706632151095</v>
+        <v>0.002461649854735081</v>
       </c>
       <c r="J6" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K6" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L6" t="n">
-        <v>9.154553573686997e-05</v>
+        <v>4.019323833759358e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>20.36886457383551</v>
+        <v>20.2869718835539</v>
       </c>
       <c r="N6" t="n">
-        <v>806.0288541788688</v>
+        <v>799.4117931778953</v>
       </c>
       <c r="O6" t="n">
-        <v>28.39064730116009</v>
+        <v>28.27387120961499</v>
       </c>
       <c r="P6" t="n">
-        <v>301.3147482821195</v>
+        <v>300.916718266133</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22290,28 +22624,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1933863659871285</v>
+        <v>-0.1311508198202026</v>
       </c>
       <c r="J7" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K7" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004858898708875681</v>
+        <v>0.002305986318739017</v>
       </c>
       <c r="M7" t="n">
-        <v>15.14744748993043</v>
+        <v>15.10078209165563</v>
       </c>
       <c r="N7" t="n">
-        <v>381.667651773722</v>
+        <v>380.1941349021647</v>
       </c>
       <c r="O7" t="n">
-        <v>19.53631622834054</v>
+        <v>19.4985675089778</v>
       </c>
       <c r="P7" t="n">
-        <v>322.6533250849292</v>
+        <v>322.0256186951746</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22367,28 +22701,28 @@
         <v>0.065</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1325879935240867</v>
+        <v>-0.0842132450890614</v>
       </c>
       <c r="J8" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K8" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002474010512708902</v>
+        <v>0.001026411827231732</v>
       </c>
       <c r="M8" t="n">
-        <v>14.8748185373777</v>
+        <v>14.81731478626712</v>
       </c>
       <c r="N8" t="n">
-        <v>360.1982295302235</v>
+        <v>358.8268080574824</v>
       </c>
       <c r="O8" t="n">
-        <v>18.97888904889387</v>
+        <v>18.94272440958487</v>
       </c>
       <c r="P8" t="n">
-        <v>316.5634167684283</v>
+        <v>316.0749422870065</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22438,28 +22772,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2898867006452803</v>
+        <v>-0.2595266480289068</v>
       </c>
       <c r="J9" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K9" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009892879590693959</v>
+        <v>0.008220207471091534</v>
       </c>
       <c r="M9" t="n">
-        <v>15.50596959011059</v>
+        <v>15.38819353391657</v>
       </c>
       <c r="N9" t="n">
-        <v>411.6095019254976</v>
+        <v>406.7304438583735</v>
       </c>
       <c r="O9" t="n">
-        <v>20.28816162015419</v>
+        <v>20.1675591943689</v>
       </c>
       <c r="P9" t="n">
-        <v>314.6885680582507</v>
+        <v>314.3746425828724</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22515,28 +22849,28 @@
         <v>0.1038</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.351103896052218</v>
+        <v>-0.3512578474527213</v>
       </c>
       <c r="J10" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K10" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02059420534745882</v>
+        <v>0.02143403237568908</v>
       </c>
       <c r="M10" t="n">
-        <v>13.12111649154219</v>
+        <v>12.97437451965792</v>
       </c>
       <c r="N10" t="n">
-        <v>297.8304265367728</v>
+        <v>292.7626081986556</v>
       </c>
       <c r="O10" t="n">
-        <v>17.25776423922789</v>
+        <v>17.11030707493748</v>
       </c>
       <c r="P10" t="n">
-        <v>314.4172491037414</v>
+        <v>314.4184495963421</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22592,28 +22926,28 @@
         <v>0.0857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1390091231971252</v>
+        <v>-0.1229265996631826</v>
       </c>
       <c r="J11" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K11" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002647094381496795</v>
+        <v>0.002146671243907661</v>
       </c>
       <c r="M11" t="n">
-        <v>14.66205775816001</v>
+        <v>14.52512124856416</v>
       </c>
       <c r="N11" t="n">
-        <v>381.9699977564842</v>
+        <v>376.4863608854791</v>
       </c>
       <c r="O11" t="n">
-        <v>19.54405274646188</v>
+        <v>19.40325645054147</v>
       </c>
       <c r="P11" t="n">
-        <v>309.7875115891678</v>
+        <v>309.628393800836</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22669,28 +23003,28 @@
         <v>0.0844</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1890582503974932</v>
+        <v>-0.09378240893004586</v>
       </c>
       <c r="J12" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K12" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003205568080389298</v>
+        <v>0.0008024036186460304</v>
       </c>
       <c r="M12" t="n">
-        <v>18.41400554040694</v>
+        <v>18.51643340686162</v>
       </c>
       <c r="N12" t="n">
-        <v>562.1905984796128</v>
+        <v>566.1860070378983</v>
       </c>
       <c r="O12" t="n">
-        <v>23.71055879728719</v>
+        <v>23.7946634151</v>
       </c>
       <c r="P12" t="n">
-        <v>304.3432227217154</v>
+        <v>303.3752049998736</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22746,28 +23080,28 @@
         <v>0.0737</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3293343170360797</v>
+        <v>-0.2588752496269681</v>
       </c>
       <c r="J13" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K13" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01170466905622292</v>
+        <v>0.007442567631626651</v>
       </c>
       <c r="M13" t="n">
-        <v>16.34274794422084</v>
+        <v>16.28957435549706</v>
       </c>
       <c r="N13" t="n">
-        <v>478.6572785884154</v>
+        <v>476.9191048840202</v>
       </c>
       <c r="O13" t="n">
-        <v>21.87823755672324</v>
+        <v>21.83847762285687</v>
       </c>
       <c r="P13" t="n">
-        <v>318.1697729184053</v>
+        <v>317.4575142260305</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -22823,28 +23157,28 @@
         <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01763073301351214</v>
+        <v>0.03579290038829468</v>
       </c>
       <c r="J14" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K14" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L14" t="n">
-        <v>5.632225090279608e-05</v>
+        <v>0.000241744785995146</v>
       </c>
       <c r="M14" t="n">
-        <v>13.16287413782928</v>
+        <v>13.00867686847521</v>
       </c>
       <c r="N14" t="n">
-        <v>288.4946563064399</v>
+        <v>283.584764301937</v>
       </c>
       <c r="O14" t="n">
-        <v>16.98513044714229</v>
+        <v>16.83997518709386</v>
       </c>
       <c r="P14" t="n">
-        <v>326.0662279713801</v>
+        <v>325.8857288546713</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -22900,28 +23234,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09207833435765943</v>
+        <v>0.1228886597052539</v>
       </c>
       <c r="J15" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K15" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001577830849948114</v>
+        <v>0.002910030839755384</v>
       </c>
       <c r="M15" t="n">
-        <v>12.32312317556641</v>
+        <v>12.22201115202481</v>
       </c>
       <c r="N15" t="n">
-        <v>276.28968353865</v>
+        <v>272.5760228320081</v>
       </c>
       <c r="O15" t="n">
-        <v>16.62196388934382</v>
+        <v>16.50987652382683</v>
       </c>
       <c r="P15" t="n">
-        <v>324.6742318025615</v>
+        <v>324.3644019051141</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -22977,28 +23311,28 @@
         <v>0.0697</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01875401248795675</v>
+        <v>0.06874924795773198</v>
       </c>
       <c r="J16" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K16" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L16" t="n">
-        <v>5.632143585254656e-05</v>
+        <v>0.0007782315795388239</v>
       </c>
       <c r="M16" t="n">
-        <v>13.6461860864197</v>
+        <v>13.59598220224028</v>
       </c>
       <c r="N16" t="n">
-        <v>312.6828832080138</v>
+        <v>310.8293180690271</v>
       </c>
       <c r="O16" t="n">
-        <v>17.68284149134448</v>
+        <v>17.63035218221766</v>
       </c>
       <c r="P16" t="n">
-        <v>328.527106353857</v>
+        <v>328.013849833821</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -23054,28 +23388,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01277927041745917</v>
+        <v>0.007235241916382603</v>
       </c>
       <c r="J17" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K17" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L17" t="n">
-        <v>2.596977076307905e-05</v>
+        <v>8.681545609179331e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>13.73865356484304</v>
+        <v>13.56373991501693</v>
       </c>
       <c r="N17" t="n">
-        <v>323.7926640720311</v>
+        <v>317.8724738358222</v>
       </c>
       <c r="O17" t="n">
-        <v>17.99423974698657</v>
+        <v>17.82897848548318</v>
       </c>
       <c r="P17" t="n">
-        <v>334.8688735813784</v>
+        <v>334.6660988022246</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -23112,7 +23446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R345"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48592,6 +48926,434 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-38.223942712735706,174.71397883665793</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-38.22326961275694,174.714267098329</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-38.22256958689424,174.7143960576601</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-38.22186010744308,174.71446911309425</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-38.221102631489615,174.71441794324812</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-38.22036358533265,174.71452328443897</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-38.219643376929895,174.71466567898673</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-38.21893409786568,174.7146894141552</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-38.21823046472958,174.7146205002442</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-38.21753154574199,174.714376094319</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-38.21682151025978,174.71428263804304</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-38.216128677275755,174.7140694782233</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-38.21543908625613,174.71384600733674</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-38.214752888198745,174.71358693959246</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-38.21403574353838,174.713651816945</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-38.22393540285871,174.71393557860299</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-38.22326408665696,174.7142343961779</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-38.222553497069136,174.71430084277333</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-38.22183426306975,174.71431617551966</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-38.221092189556884,174.71425069045068</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-38.22037771771997,174.71424955906568</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-38.21966160663478,174.7143668839299</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-38.21894278353778,174.71454705454602</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-38.21824880986046,174.7143198171053</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-38.217557937832225,174.71401683588257</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-38.21684014038653,174.7140773026277</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-38.216137599990255,174.71397605696006</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-38.21544932624536,174.71373879304912</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>-38.21475500329407,174.71356479401618</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>-38.21405091737493,174.7134929447676</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-38.224576374168024,174.71345722718587</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-38.223913762508474,174.71380751693863</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-38.223250097227506,174.71415161031211</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-38.22254740135588,174.71426477025358</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-38.221861724151324,174.71447868022702</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-38.22110514064538,174.71445813402144</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-38.22036144402256,174.71456475765504</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-38.21964967669294,174.71456242377195</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-38.218935290496155,174.714669866913</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-38.21824035757911,174.7144583545497</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-38.217534477941086,174.71433618094142</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-38.21683104341173,174.71417756713777</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>-38.21613692862353,174.71398308623077</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>-38.21543184204568,174.71392185471686</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>-38.214733278252126,174.71379225849313</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>-38.2140390677963,174.71361701170028</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-38.22456812408718,174.71340840593518</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-38.22390639594996,174.71376392387083</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-38.22322118486612,174.71398051555553</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-38.22254488596099,174.71424988495627</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-38.22111121089697,174.71455536609986</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-38.22035634237132,174.7146635660522</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-38.219644241993784,174.71465150039043</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-38.21894084988676,174.71457874765483</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-38.21823711093352,174.7145115681003</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-38.217526828576666,174.71444030443618</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-38.216826987599,174.7142222689481</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-38.21614385884058,174.71391052601012</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-38.2154328129965,174.71391168882582</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-38.21473271878771,174.71379811610765</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>-38.214029910722296,174.71371288672515</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-38.22110858093843,174.71451323978792</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-38.220367437300375,174.71444867822882</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-38.21965363708632,174.71449751083523</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-38.218944291084924,174.7145223453065</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-38.2182372012471,174.71451008783757</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-38.21754701969252,174.71416545929208</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-38.216850370521314,174.7139645475663</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-38.21612502803752,174.71410768569862</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-38.21543131867035,174.71392733447212</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-38.21473815460384,174.7137412027648</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-38.214036299386784,174.71364599717577</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -22090,7 +22090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22181,35 +22181,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22268,27 +22273,28 @@
       <c r="P2" t="n">
         <v>337.1946802911448</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.71715712617225 -38.22520153828418, 174.70694374947948 -38.22347549400097)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7171571261723</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.22520153828418</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7069437494795</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.22347549400097</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7120504378259</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.22433851614258</v>
       </c>
     </row>
@@ -22345,27 +22351,28 @@
       <c r="P3" t="n">
         <v>316.3783536871206</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.71735619143985 -38.224513374253306, 174.70714287581202 -38.22278733389362)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7173561914398</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.22451337425331</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.707142875812</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.22278733389362</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7122495336259</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.22365035407346</v>
       </c>
     </row>
@@ -22422,27 +22429,28 @@
       <c r="P4" t="n">
         <v>308.6213709840014</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.71755525670793 -38.22382520371274, 174.70734200214366 -38.22209916727626)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7175552567079</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.22382520371274</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7073420021437</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.22209916727626</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7124486294258</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.2229621854945</v>
       </c>
     </row>
@@ -22499,27 +22507,28 @@
       <c r="P5" t="n">
         <v>301.7221988934852</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.71775432197646 -38.223137026662485, 174.70754112847442 -38.221410994148904)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7177543219765</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.22313702666249</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7075411284744</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.2214109941489</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7126477252255</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.2222740104057</v>
       </c>
     </row>
@@ -22576,27 +22585,28 @@
       <c r="P6" t="n">
         <v>300.916718266133</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.71795338724536 -38.22244884310264, 174.7077402548043 -38.22072281451147)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7179533872454</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.22244884310264</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7077402548043</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.22072281451147</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7128468210248</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.22158582880705</v>
       </c>
     </row>
@@ -22647,27 +22657,28 @@
       <c r="P7" t="n">
         <v>322.0256186951746</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.71823140864828 -38.22134064823567, 174.7078185829106 -38.220690436371356)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7182314086483</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.22134064823567</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7078185829106</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.22069043637136</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7130249957794</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.22101554230351</v>
       </c>
     </row>
@@ -22724,27 +22735,28 @@
       <c r="P8" t="n">
         <v>316.0749422870065</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.71819938701475 -38.220173726585976, 174.70777627235412 -38.220711744873434)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7181993870147</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.22017372658598</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7077762723541</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.22071174487343</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7129878296844</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.2204427357297</v>
       </c>
     </row>
@@ -22795,27 +22807,28 @@
       <c r="P9" t="n">
         <v>314.3746425828724</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.71813754222845 -38.21943149968268, 174.70772330992608 -38.22006673747681)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7181375422284</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.21943149968268</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7077233099261</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.22006673747681</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7129304260773</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.21974911857974</v>
       </c>
     </row>
@@ -22872,27 +22885,28 @@
       <c r="P10" t="n">
         <v>314.4184495963421</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.71807905891097 -38.218727236685076, 174.70766489181216 -38.21936247136129)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.718079058911</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.21872723668508</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7076648918122</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.21936247136129</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7128719753616</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.21904485402318</v>
       </c>
     </row>
@@ -22949,27 +22963,28 @@
       <c r="P11" t="n">
         <v>309.628393800836</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.71802057559407 -38.218022966870656, 174.70760647369715 -38.218658198429004)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7180205755941</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.21802296687066</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.7076064736972</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.218658198429</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.7128135246456</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.21834058264983</v>
       </c>
     </row>
@@ -23026,27 +23041,28 @@
       <c r="P12" t="n">
         <v>303.3752049998736</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.7179567602251 -38.217268439400605, 174.70755665357126 -38.21803232969462)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.7179567602251</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.21726843940061</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.7075566535713</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.21803232969462</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.7127567068982</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.21765038454761</v>
       </c>
     </row>
@@ -23103,27 +23119,28 @@
       <c r="P13" t="n">
         <v>317.4575142260305</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.71786117760848 -38.21649676954943, 174.70748459403057 -38.21743810285798)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.7178611776085</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.21649676954943</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.7074845940306</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.21743810285798</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.7126728858195</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.2169674362037</v>
       </c>
     </row>
@@ -23180,27 +23197,28 @@
       <c r="P14" t="n">
         <v>325.8857288546713</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.71776107149535 -38.21577603015794, 174.70739188657046 -38.21676626540205)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.7177610714953</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.21577603015794</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.7073918865705</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.21676626540205</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.7125764790329</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.21627114777999</v>
       </c>
     </row>
@@ -23257,27 +23275,28 @@
       <c r="P15" t="n">
         <v>324.3644019051141</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.71766378900435 -38.215074386109656, 174.70729466800785 -38.216064617225335)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.7176637890043</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.21507438610966</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.7072946680078</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.21606461722534</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.7124792285061</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.2155695016675</v>
       </c>
     </row>
@@ -23334,27 +23353,28 @@
       <c r="P16" t="n">
         <v>328.013849833821</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.71756650651383 -38.214372735295925, 174.70719744944415 -38.21536296228347)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.7175665065138</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.21437273529592</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.7071974494442</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.21536296228347</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.712381977979</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.21486784878969</v>
       </c>
     </row>
@@ -23411,27 +23431,28 @@
       <c r="P17" t="n">
         <v>334.6660988022246</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.7174692240239 -38.2136710777169, 174.70710023087946 -38.21466130057637)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.7174692240239</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.2136710777169</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.7071002308795</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.21466130057637</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.7122847274517</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.21416618914664</v>
       </c>
     </row>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R350"/>
+  <dimension ref="A1:R354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18318,6 +18318,246 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>342.3985714285715</v>
+      </c>
+      <c r="C351" t="n">
+        <v>325.8566666666667</v>
+      </c>
+      <c r="D351" t="n">
+        <v>319.13</v>
+      </c>
+      <c r="E351" t="n">
+        <v>306.8971428571429</v>
+      </c>
+      <c r="F351" t="n">
+        <v>304.9055555555556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>325.91</v>
+      </c>
+      <c r="H351" t="n">
+        <v>336.65</v>
+      </c>
+      <c r="I351" t="n">
+        <v>330.8527586206897</v>
+      </c>
+      <c r="J351" t="n">
+        <v>319.9277777777777</v>
+      </c>
+      <c r="K351" t="n">
+        <v>316.0633333333333</v>
+      </c>
+      <c r="L351" t="n">
+        <v>334.7966666666667</v>
+      </c>
+      <c r="M351" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="N351" t="n">
+        <v>332.66</v>
+      </c>
+      <c r="O351" t="n">
+        <v>336.8433333333334</v>
+      </c>
+      <c r="P351" t="n">
+        <v>340.7866666666667</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>348.2866666666667</v>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>330.0814285714285</v>
+      </c>
+      <c r="C352" t="n">
+        <v>319.4666666666667</v>
+      </c>
+      <c r="D352" t="n">
+        <v>309.14</v>
+      </c>
+      <c r="E352" t="n">
+        <v>308.5328571428572</v>
+      </c>
+      <c r="F352" t="n">
+        <v>285.1555555555556</v>
+      </c>
+      <c r="G352" t="n">
+        <v>312.3200000000001</v>
+      </c>
+      <c r="H352" t="n">
+        <v>304.77</v>
+      </c>
+      <c r="I352" t="n">
+        <v>301.4279310344828</v>
+      </c>
+      <c r="J352" t="n">
+        <v>302.0377777777778</v>
+      </c>
+      <c r="K352" t="n">
+        <v>305.4333333333333</v>
+      </c>
+      <c r="L352" t="n">
+        <v>303.7466666666667</v>
+      </c>
+      <c r="M352" t="n">
+        <v>313.59</v>
+      </c>
+      <c r="N352" t="n">
+        <v>325.48</v>
+      </c>
+      <c r="O352" t="n">
+        <v>318.9833333333333</v>
+      </c>
+      <c r="P352" t="n">
+        <v>322.9366666666667</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>332.3466666666667</v>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>335.05</v>
+      </c>
+      <c r="C353" t="n">
+        <v>321.3133333333333</v>
+      </c>
+      <c r="D353" t="n">
+        <v>311.4354545454545</v>
+      </c>
+      <c r="E353" t="n">
+        <v>302.24</v>
+      </c>
+      <c r="F353" t="n">
+        <v>305.3611111111111</v>
+      </c>
+      <c r="G353" t="n">
+        <v>319.85</v>
+      </c>
+      <c r="H353" t="n">
+        <v>324.9054545454546</v>
+      </c>
+      <c r="I353" t="n">
+        <v>322.8910344827586</v>
+      </c>
+      <c r="J353" t="n">
+        <v>323.0755555555555</v>
+      </c>
+      <c r="K353" t="n">
+        <v>318.1866666666667</v>
+      </c>
+      <c r="L353" t="n">
+        <v>330.1833333333333</v>
+      </c>
+      <c r="M353" t="n">
+        <v>338.0254545454546</v>
+      </c>
+      <c r="N353" t="n">
+        <v>331.07</v>
+      </c>
+      <c r="O353" t="n">
+        <v>331.7566666666667</v>
+      </c>
+      <c r="P353" t="n">
+        <v>334.6633333333333</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>343.6133333333333</v>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>333.3457142857143</v>
+      </c>
+      <c r="C354" t="n">
+        <v>320.82</v>
+      </c>
+      <c r="D354" t="n">
+        <v>320.3654545454545</v>
+      </c>
+      <c r="E354" t="n">
+        <v>314.8514285714285</v>
+      </c>
+      <c r="F354" t="n">
+        <v>280.17</v>
+      </c>
+      <c r="G354" t="n">
+        <v>323.54</v>
+      </c>
+      <c r="H354" t="n">
+        <v>318.1854545454545</v>
+      </c>
+      <c r="I354" t="n">
+        <v>316.5206896551724</v>
+      </c>
+      <c r="J354" t="n">
+        <v>310.81</v>
+      </c>
+      <c r="K354" t="n">
+        <v>315.74</v>
+      </c>
+      <c r="L354" t="n">
+        <v>313.13</v>
+      </c>
+      <c r="M354" t="n">
+        <v>323.2354545454546</v>
+      </c>
+      <c r="N354" t="n">
+        <v>348.46</v>
+      </c>
+      <c r="O354" t="n">
+        <v>333.81</v>
+      </c>
+      <c r="P354" t="n">
+        <v>331.9</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>340.01</v>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18329,7 +18569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22077,6 +22317,46 @@
       </c>
       <c r="B374" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -22250,28 +22530,28 @@
         <v>0.0788</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06965921758218492</v>
+        <v>-0.07028147415111603</v>
       </c>
       <c r="J2" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K2" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007930978585928283</v>
+        <v>0.0008337447791170183</v>
       </c>
       <c r="M2" t="n">
-        <v>12.64598515798932</v>
+        <v>12.50081447109555</v>
       </c>
       <c r="N2" t="n">
-        <v>321.2674312071069</v>
+        <v>316.4145106198617</v>
       </c>
       <c r="O2" t="n">
-        <v>17.9239345905721</v>
+        <v>17.78804403580848</v>
       </c>
       <c r="P2" t="n">
-        <v>337.1946802911448</v>
+        <v>337.2011905100262</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22328,28 +22608,28 @@
         <v>0.0683</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2077162226446278</v>
+        <v>-0.177408393791731</v>
       </c>
       <c r="J3" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K3" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01211550101861358</v>
+        <v>0.009047262690123348</v>
       </c>
       <c r="M3" t="n">
-        <v>9.882353767533411</v>
+        <v>9.893691404396916</v>
       </c>
       <c r="N3" t="n">
-        <v>190.2823715410459</v>
+        <v>189.1938908352893</v>
       </c>
       <c r="O3" t="n">
-        <v>13.79428764166696</v>
+        <v>13.75477701874114</v>
       </c>
       <c r="P3" t="n">
-        <v>316.3783536871206</v>
+        <v>316.0738479351602</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22406,28 +22686,28 @@
         <v>0.0596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1862551858942572</v>
+        <v>-0.153185649568891</v>
       </c>
       <c r="J4" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K4" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008562540700464916</v>
+        <v>0.005932746952793</v>
       </c>
       <c r="M4" t="n">
-        <v>10.85353560847806</v>
+        <v>10.86522196600875</v>
       </c>
       <c r="N4" t="n">
-        <v>208.9358781086853</v>
+        <v>207.9358229118639</v>
       </c>
       <c r="O4" t="n">
-        <v>14.45461442269164</v>
+        <v>14.41997998999527</v>
       </c>
       <c r="P4" t="n">
-        <v>308.6213709840014</v>
+        <v>308.2846812002493</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22484,28 +22764,28 @@
         <v>0.0418</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1329473209227091</v>
+        <v>-0.1035625436575527</v>
       </c>
       <c r="J5" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K5" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00206245584342768</v>
+        <v>0.001287041104589548</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7846596128276</v>
+        <v>15.6837072213861</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6321388856304</v>
+        <v>435.5635820825361</v>
       </c>
       <c r="O5" t="n">
-        <v>20.99123957477572</v>
+        <v>20.87016008761159</v>
       </c>
       <c r="P5" t="n">
-        <v>301.7221988934852</v>
+        <v>301.4172908345518</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22562,28 +22842,28 @@
         <v>0.0554</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002461649854735081</v>
+        <v>-0.02062917936910192</v>
       </c>
       <c r="J6" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K6" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L6" t="n">
-        <v>4.019323833759358e-07</v>
+        <v>2.912662744192218e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>20.2869718835539</v>
+        <v>20.14849366215046</v>
       </c>
       <c r="N6" t="n">
-        <v>799.4117931778953</v>
+        <v>788.9941703381658</v>
       </c>
       <c r="O6" t="n">
-        <v>28.27387120961499</v>
+        <v>28.08904003945606</v>
       </c>
       <c r="P6" t="n">
-        <v>300.916718266133</v>
+        <v>301.1490483891096</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22634,28 +22914,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1311508198202026</v>
+        <v>-0.1256741677171861</v>
       </c>
       <c r="J7" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K7" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002305986318739017</v>
+        <v>0.002188842826978621</v>
       </c>
       <c r="M7" t="n">
-        <v>15.10078209165563</v>
+        <v>14.93900797475259</v>
       </c>
       <c r="N7" t="n">
-        <v>380.1941349021647</v>
+        <v>374.7757167121169</v>
       </c>
       <c r="O7" t="n">
-        <v>19.4985675089778</v>
+        <v>19.35912489530756</v>
       </c>
       <c r="P7" t="n">
-        <v>322.0256186951746</v>
+        <v>321.9699212846472</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22712,28 +22992,28 @@
         <v>0.065</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0842132450890614</v>
+        <v>-0.06228735354438884</v>
       </c>
       <c r="J8" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K8" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001026411827231732</v>
+        <v>0.0005758408136403714</v>
       </c>
       <c r="M8" t="n">
-        <v>14.81731478626712</v>
+        <v>14.75733424948822</v>
       </c>
       <c r="N8" t="n">
-        <v>358.8268080574824</v>
+        <v>356.0918416782552</v>
       </c>
       <c r="O8" t="n">
-        <v>18.94272440958487</v>
+        <v>18.87039590677035</v>
       </c>
       <c r="P8" t="n">
-        <v>316.0749422870065</v>
+        <v>315.8520225112475</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22784,28 +23064,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2595266480289068</v>
+        <v>-0.2290327820008862</v>
       </c>
       <c r="J9" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K9" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008220207471091534</v>
+        <v>0.006567741280490647</v>
       </c>
       <c r="M9" t="n">
-        <v>15.38819353391657</v>
+        <v>15.35339708259694</v>
       </c>
       <c r="N9" t="n">
-        <v>406.7304438583735</v>
+        <v>403.9135193793695</v>
       </c>
       <c r="O9" t="n">
-        <v>20.1675591943689</v>
+        <v>20.09759984125889</v>
       </c>
       <c r="P9" t="n">
-        <v>314.3746425828724</v>
+        <v>314.0572846158602</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22862,28 +23142,28 @@
         <v>0.1038</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3512578474527213</v>
+        <v>-0.325599356161171</v>
       </c>
       <c r="J10" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K10" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02143403237568908</v>
+        <v>0.01893565892201698</v>
       </c>
       <c r="M10" t="n">
-        <v>12.97437451965792</v>
+        <v>12.92777915103121</v>
       </c>
       <c r="N10" t="n">
-        <v>292.7626081986556</v>
+        <v>290.4099363535131</v>
       </c>
       <c r="O10" t="n">
-        <v>17.11030707493748</v>
+        <v>17.04141826121034</v>
       </c>
       <c r="P10" t="n">
-        <v>314.4184495963421</v>
+        <v>314.158280676542</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22940,28 +23220,28 @@
         <v>0.0857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1229265996631826</v>
+        <v>-0.1017200189860626</v>
       </c>
       <c r="J11" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K11" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002146671243907661</v>
+        <v>0.001512697060759516</v>
       </c>
       <c r="M11" t="n">
-        <v>14.52512124856416</v>
+        <v>14.42673542039175</v>
       </c>
       <c r="N11" t="n">
-        <v>376.4863608854791</v>
+        <v>372.0267882717437</v>
       </c>
       <c r="O11" t="n">
-        <v>19.40325645054147</v>
+        <v>19.28799596307879</v>
       </c>
       <c r="P11" t="n">
-        <v>309.628393800836</v>
+        <v>309.4169491216313</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23018,28 +23298,28 @@
         <v>0.0844</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09378240893004586</v>
+        <v>-0.03613741831861601</v>
       </c>
       <c r="J12" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K12" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0008024036186460304</v>
+        <v>0.0001213454204780362</v>
       </c>
       <c r="M12" t="n">
-        <v>18.51643340686162</v>
+        <v>18.51042542237337</v>
       </c>
       <c r="N12" t="n">
-        <v>566.1860070378983</v>
+        <v>565.5064718794919</v>
       </c>
       <c r="O12" t="n">
-        <v>23.7946634151</v>
+        <v>23.78037997760952</v>
       </c>
       <c r="P12" t="n">
-        <v>303.3752049998736</v>
+        <v>302.7853853090414</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23096,28 +23376,28 @@
         <v>0.0737</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2588752496269681</v>
+        <v>-0.2008600359326583</v>
       </c>
       <c r="J13" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K13" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007442567631626651</v>
+        <v>0.00456211325890421</v>
       </c>
       <c r="M13" t="n">
-        <v>16.28957435549706</v>
+        <v>16.2712048668409</v>
       </c>
       <c r="N13" t="n">
-        <v>476.9191048840202</v>
+        <v>477.1002472229933</v>
       </c>
       <c r="O13" t="n">
-        <v>21.83847762285687</v>
+        <v>21.84262454978781</v>
       </c>
       <c r="P13" t="n">
-        <v>317.4575142260305</v>
+        <v>316.8670357806394</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23174,28 +23454,28 @@
         <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03579290038829468</v>
+        <v>0.06016251347893678</v>
       </c>
       <c r="J14" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K14" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000241744785995146</v>
+        <v>0.0007011959080919228</v>
       </c>
       <c r="M14" t="n">
-        <v>13.00867686847521</v>
+        <v>12.91422747049783</v>
       </c>
       <c r="N14" t="n">
-        <v>283.584764301937</v>
+        <v>280.9895585585722</v>
       </c>
       <c r="O14" t="n">
-        <v>16.83997518709386</v>
+        <v>16.76274316925998</v>
       </c>
       <c r="P14" t="n">
-        <v>325.8857288546713</v>
+        <v>325.6411472832746</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23252,28 +23532,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1228886597052539</v>
+        <v>0.1316934534506761</v>
       </c>
       <c r="J15" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K15" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002910030839755384</v>
+        <v>0.003441772015209343</v>
       </c>
       <c r="M15" t="n">
-        <v>12.22201115202481</v>
+        <v>12.13801745397955</v>
       </c>
       <c r="N15" t="n">
-        <v>272.5760228320081</v>
+        <v>269.0497662798379</v>
       </c>
       <c r="O15" t="n">
-        <v>16.50987652382683</v>
+        <v>16.40273654851037</v>
       </c>
       <c r="P15" t="n">
-        <v>324.3644019051141</v>
+        <v>324.2750340941658</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23330,28 +23610,28 @@
         <v>0.0697</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06874924795773198</v>
+        <v>0.0775045558641399</v>
       </c>
       <c r="J16" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K16" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007782315795388239</v>
+        <v>0.001019535591215259</v>
       </c>
       <c r="M16" t="n">
-        <v>13.59598220224028</v>
+        <v>13.47254210668834</v>
       </c>
       <c r="N16" t="n">
-        <v>310.8293180690271</v>
+        <v>306.6188608952243</v>
       </c>
       <c r="O16" t="n">
-        <v>17.63035218221766</v>
+        <v>17.5105357112575</v>
       </c>
       <c r="P16" t="n">
-        <v>328.013849833821</v>
+        <v>327.9233044298917</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23408,28 +23688,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007235241916382603</v>
+        <v>0.02802388875862475</v>
       </c>
       <c r="J17" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K17" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L17" t="n">
-        <v>8.681545609179331e-06</v>
+        <v>0.0001343612651628634</v>
       </c>
       <c r="M17" t="n">
-        <v>13.56373991501693</v>
+        <v>13.45594098002176</v>
       </c>
       <c r="N17" t="n">
-        <v>317.8724738358222</v>
+        <v>313.4949831008059</v>
       </c>
       <c r="O17" t="n">
-        <v>17.82897848548318</v>
+        <v>17.70578953621684</v>
       </c>
       <c r="P17" t="n">
-        <v>334.6660988022246</v>
+        <v>334.4536532793447</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23467,7 +23747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R350"/>
+  <dimension ref="A1:R354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49375,6 +49655,374 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-38.22455539843192,174.71333309997385</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-38.223898456907804,174.7137169431357</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-38.22322298460451,174.71399116582478</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-38.22255789697546,174.71432688008434</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-38.221873475143106,174.71454821877592</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-38.22110905006727,174.71452075421095</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-38.220371874413345,174.71436273758175</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-38.21966140540954,174.71437018219294</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-38.21894955086324,174.7144361349754</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-38.21824259455491,174.71442168957498</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-38.21754817806562,174.71414969103685</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>-38.216851194953946,174.71395546073626</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>-38.21613631139891,174.71398954862465</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>-38.21543919453992,174.713844873594</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>-38.21474181095081,174.7137029204113</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>-38.21404827171423,174.71352064536904</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-38.2245786442847,174.71347066100898</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-38.22391051644372,174.71378830769513</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-38.2232418380492,174.71410273478543</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-38.22255481003198,174.71430861248533</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-38.22191074715066,174.7147687841723</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-38.2211187097494,174.71467548302985</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-38.2203531156157,174.71472606077467</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-38.219640963318355,174.71470523848558</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-38.218937122277595,174.71463984386574</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-38.21823520971263,174.71454272952786</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-38.21752223947081,174.71450277094002</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>-38.21681963393878,174.7143033180399</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>-38.21612853650418,174.71407095210225</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>-38.21541985488199,174.7140473599859</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>-38.214722482342374,174.71390529154021</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>-38.21403101159656,174.7137013605608</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-38.22456926723686,174.71341517070917</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-38.223907031324146,174.71376768381913</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-38.22323750600412,174.71407709899708</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-38.22256668598651,174.71437889089816</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-38.22187261541814,174.714543131194</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-38.22111335750053,174.71458975028062</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-38.22036496383006,174.71449658534223</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-38.21965587431425,174.71446084122618</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>-38.218951737658905,174.71440029202006</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>-38.218244069655874,174.71439751194524</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>-38.21754432423924,174.7142021508068</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>-38.21684478756868,174.7140260822118</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>-38.216134589665224,174.71400757530174</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>-38.21543368649053,174.7139025433028</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>-38.21473518042896,174.71377234260297</t>
+        </is>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>-38.214043211373784,174.71357362795922</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-38.2245724836913,174.7134342046144</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-38.22390796236728,174.71377319344649</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-38.22322065300807,174.71397736819293</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-38.22254288550623,174.7142380469177</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-38.221920155776104,174.7148244622327</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-38.22111073466237,174.7145477378216</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-38.22036100966059,174.714573170408</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-38.219651448717066,174.71453337943518</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>-38.218943216581806,174.7145399568076</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>-38.21824236993155,174.71442537125475</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>-38.21753007824507,174.71439606995858</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>-38.21682956295782,174.71419388422746</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>-38.21615342030125,174.71381041555534</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>-38.2154359099267,174.71387926378847</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>-38.2147321881986,174.71380367139358</t>
+        </is>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>-38.21403930962575,174.7136144797225</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R354"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18558,6 +18558,124 @@
         </is>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>331.5242857142857</v>
+      </c>
+      <c r="C355" t="n">
+        <v>321.3033333333333</v>
+      </c>
+      <c r="D355" t="n">
+        <v>313.6845454545455</v>
+      </c>
+      <c r="E355" t="n">
+        <v>306.3285714285714</v>
+      </c>
+      <c r="F355" t="n">
+        <v>269.6844444444445</v>
+      </c>
+      <c r="G355" t="n">
+        <v>319.72</v>
+      </c>
+      <c r="H355" t="n">
+        <v>310.1945454545454</v>
+      </c>
+      <c r="I355" t="n">
+        <v>306.4320689655173</v>
+      </c>
+      <c r="J355" t="n">
+        <v>312.7722222222222</v>
+      </c>
+      <c r="K355" t="n">
+        <v>312.5566666666667</v>
+      </c>
+      <c r="L355" t="n">
+        <v>305.6933333333333</v>
+      </c>
+      <c r="M355" t="n">
+        <v>316.5745454545454</v>
+      </c>
+      <c r="N355" t="n">
+        <v>340.02</v>
+      </c>
+      <c r="O355" t="n">
+        <v>323.6366666666667</v>
+      </c>
+      <c r="P355" t="n">
+        <v>332.7633333333333</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>339.8433333333333</v>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>335.5257142857143</v>
+      </c>
+      <c r="C356" t="n">
+        <v>313.8166666666667</v>
+      </c>
+      <c r="D356" t="n">
+        <v>307.0545454545455</v>
+      </c>
+      <c r="E356" t="n">
+        <v>303.0314285714285</v>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="n">
+        <v>329.79</v>
+      </c>
+      <c r="H356" t="n">
+        <v>323.2945454545454</v>
+      </c>
+      <c r="I356" t="n">
+        <v>323.9272413793104</v>
+      </c>
+      <c r="J356" t="n">
+        <v>322.9677777777778</v>
+      </c>
+      <c r="K356" t="n">
+        <v>327.2633333333333</v>
+      </c>
+      <c r="L356" t="n">
+        <v>332.1666666666667</v>
+      </c>
+      <c r="M356" t="n">
+        <v>342.2645454545454</v>
+      </c>
+      <c r="N356" t="n">
+        <v>338.61</v>
+      </c>
+      <c r="O356" t="n">
+        <v>338.3333333333334</v>
+      </c>
+      <c r="P356" t="n">
+        <v>339.6266666666667</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>347.9166666666667</v>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18569,7 +18687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22357,6 +22475,26 @@
       </c>
       <c r="B378" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -22530,28 +22668,28 @@
         <v>0.0788</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07028147415111603</v>
+        <v>-0.07314757974948521</v>
       </c>
       <c r="J2" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K2" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008337447791170183</v>
+        <v>0.0009176594957474027</v>
       </c>
       <c r="M2" t="n">
-        <v>12.50081447109555</v>
+        <v>12.41407668709966</v>
       </c>
       <c r="N2" t="n">
-        <v>316.4145106198617</v>
+        <v>313.9423608746073</v>
       </c>
       <c r="O2" t="n">
-        <v>17.78804403580848</v>
+        <v>17.71841869001315</v>
       </c>
       <c r="P2" t="n">
-        <v>337.2011905100262</v>
+        <v>337.2304721683027</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22608,28 +22746,28 @@
         <v>0.0683</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.177408393791731</v>
+        <v>-0.1689994829341291</v>
       </c>
       <c r="J3" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K3" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009047262690123348</v>
+        <v>0.008319819369966064</v>
       </c>
       <c r="M3" t="n">
-        <v>9.893691404396916</v>
+        <v>9.863624440337519</v>
       </c>
       <c r="N3" t="n">
-        <v>189.1938908352893</v>
+        <v>188.1585631674044</v>
       </c>
       <c r="O3" t="n">
-        <v>13.75477701874114</v>
+        <v>13.71709018587413</v>
       </c>
       <c r="P3" t="n">
-        <v>316.0738479351602</v>
+        <v>315.9888200221375</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22686,28 +22824,28 @@
         <v>0.0596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.153185649568891</v>
+        <v>-0.1443629831210976</v>
       </c>
       <c r="J4" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K4" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005932746952793</v>
+        <v>0.005345591684266737</v>
       </c>
       <c r="M4" t="n">
-        <v>10.86522196600875</v>
+        <v>10.83028551633106</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9358229118639</v>
+        <v>206.7316655850753</v>
       </c>
       <c r="O4" t="n">
-        <v>14.41997998999527</v>
+        <v>14.37816628033892</v>
       </c>
       <c r="P4" t="n">
-        <v>308.2846812002493</v>
+        <v>308.1943649162519</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22764,28 +22902,28 @@
         <v>0.0418</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1035625436575527</v>
+        <v>-0.09479263123102384</v>
       </c>
       <c r="J5" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K5" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001287041104589548</v>
+        <v>0.001094378994174972</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6837072213861</v>
+        <v>15.6057360876981</v>
       </c>
       <c r="N5" t="n">
-        <v>435.5635820825361</v>
+        <v>432.5103983566476</v>
       </c>
       <c r="O5" t="n">
-        <v>20.87016008761159</v>
+        <v>20.79688434253188</v>
       </c>
       <c r="P5" t="n">
-        <v>301.4172908345518</v>
+        <v>301.3258062320105</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22842,28 +22980,28 @@
         <v>0.0554</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02062917936910192</v>
+        <v>-0.04567585344330854</v>
       </c>
       <c r="J6" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K6" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L6" t="n">
-        <v>2.912662744192218e-05</v>
+        <v>0.0001432907324580013</v>
       </c>
       <c r="M6" t="n">
-        <v>20.14849366215046</v>
+        <v>20.20812438631393</v>
       </c>
       <c r="N6" t="n">
-        <v>788.9941703381658</v>
+        <v>789.6428781449026</v>
       </c>
       <c r="O6" t="n">
-        <v>28.08904003945606</v>
+        <v>28.10058501428222</v>
       </c>
       <c r="P6" t="n">
-        <v>301.1490483891096</v>
+        <v>301.4018392392575</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22914,28 +23052,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1256741677171861</v>
+        <v>-0.1163320135555317</v>
       </c>
       <c r="J7" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K7" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002188842826978621</v>
+        <v>0.001905275816042606</v>
       </c>
       <c r="M7" t="n">
-        <v>14.93900797475259</v>
+        <v>14.86213634248366</v>
       </c>
       <c r="N7" t="n">
-        <v>374.7757167121169</v>
+        <v>372.3698084391803</v>
       </c>
       <c r="O7" t="n">
-        <v>19.35912489530756</v>
+        <v>19.29688597777321</v>
       </c>
       <c r="P7" t="n">
-        <v>321.9699212846472</v>
+        <v>321.8743446327294</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22992,28 +23130,28 @@
         <v>0.065</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06228735354438884</v>
+        <v>-0.0585127542853261</v>
       </c>
       <c r="J8" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K8" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005758408136403714</v>
+        <v>0.0005158288328335203</v>
       </c>
       <c r="M8" t="n">
-        <v>14.75733424948822</v>
+        <v>14.69223223045552</v>
       </c>
       <c r="N8" t="n">
-        <v>356.0918416782552</v>
+        <v>353.7296689094912</v>
       </c>
       <c r="O8" t="n">
-        <v>18.87039590677035</v>
+        <v>18.80770238252114</v>
       </c>
       <c r="P8" t="n">
-        <v>315.8520225112475</v>
+        <v>315.8133088183445</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23064,28 +23202,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2290327820008862</v>
+        <v>-0.2186195349412391</v>
       </c>
       <c r="J9" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K9" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006567741280490647</v>
+        <v>0.006067213218232226</v>
       </c>
       <c r="M9" t="n">
-        <v>15.35339708259694</v>
+        <v>15.30342102234545</v>
       </c>
       <c r="N9" t="n">
-        <v>403.9135193793695</v>
+        <v>401.8691189887609</v>
       </c>
       <c r="O9" t="n">
-        <v>20.09759984125889</v>
+        <v>20.04667351429561</v>
       </c>
       <c r="P9" t="n">
-        <v>314.0572846158602</v>
+        <v>313.9481529713</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23142,28 +23280,28 @@
         <v>0.1038</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.325599356161171</v>
+        <v>-0.3076309410771488</v>
       </c>
       <c r="J10" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K10" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01893565892201698</v>
+        <v>0.01712927502322836</v>
       </c>
       <c r="M10" t="n">
-        <v>12.92777915103121</v>
+        <v>12.91703998600816</v>
       </c>
       <c r="N10" t="n">
-        <v>290.4099363535131</v>
+        <v>289.4990526880941</v>
       </c>
       <c r="O10" t="n">
-        <v>17.04141826121034</v>
+        <v>17.01467168910685</v>
       </c>
       <c r="P10" t="n">
-        <v>314.158280676542</v>
+        <v>313.9748835670844</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23220,28 +23358,28 @@
         <v>0.0857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1017200189860626</v>
+        <v>-0.08308088080501524</v>
       </c>
       <c r="J11" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K11" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001512697060759516</v>
+        <v>0.001020575850383953</v>
       </c>
       <c r="M11" t="n">
-        <v>14.42673542039175</v>
+        <v>14.41654713348082</v>
       </c>
       <c r="N11" t="n">
-        <v>372.0267882717437</v>
+        <v>370.9216127894472</v>
       </c>
       <c r="O11" t="n">
-        <v>19.28799596307879</v>
+        <v>19.25932534616535</v>
       </c>
       <c r="P11" t="n">
-        <v>309.4169491216313</v>
+        <v>309.2299561869391</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23298,28 +23436,28 @@
         <v>0.0844</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03613741831861601</v>
+        <v>-0.01111068947792467</v>
       </c>
       <c r="J12" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K12" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001213454204780362</v>
+        <v>1.157981224531035e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>18.51042542237337</v>
+        <v>18.48801838647493</v>
       </c>
       <c r="N12" t="n">
-        <v>565.5064718794919</v>
+        <v>564.7206662002146</v>
       </c>
       <c r="O12" t="n">
-        <v>23.78037997760952</v>
+        <v>23.76385209094297</v>
       </c>
       <c r="P12" t="n">
-        <v>302.7853853090414</v>
+        <v>302.5275141219215</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23376,28 +23514,28 @@
         <v>0.0737</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2008600359326583</v>
+        <v>-0.1739846075897682</v>
       </c>
       <c r="J13" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K13" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00456211325890421</v>
+        <v>0.003452815567802747</v>
       </c>
       <c r="M13" t="n">
-        <v>16.2712048668409</v>
+        <v>16.25633285035546</v>
       </c>
       <c r="N13" t="n">
-        <v>477.1002472229933</v>
+        <v>477.0595552787376</v>
       </c>
       <c r="O13" t="n">
-        <v>21.84262454978781</v>
+        <v>21.8416930497326</v>
       </c>
       <c r="P13" t="n">
-        <v>316.8670357806394</v>
+        <v>316.5914272863087</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23454,28 +23592,28 @@
         <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06016251347893678</v>
+        <v>0.07923768647840621</v>
       </c>
       <c r="J14" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K14" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007011959080919228</v>
+        <v>0.001230952702781618</v>
       </c>
       <c r="M14" t="n">
-        <v>12.91422747049783</v>
+        <v>12.89628021364985</v>
       </c>
       <c r="N14" t="n">
-        <v>280.9895585585722</v>
+        <v>279.8558703847682</v>
       </c>
       <c r="O14" t="n">
-        <v>16.76274316925998</v>
+        <v>16.72889328033293</v>
       </c>
       <c r="P14" t="n">
-        <v>325.6411472832746</v>
+        <v>325.4489041316714</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23532,28 +23670,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1316934534506761</v>
+        <v>0.136795711825402</v>
       </c>
       <c r="J15" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K15" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003441772015209343</v>
+        <v>0.003765729567866805</v>
       </c>
       <c r="M15" t="n">
-        <v>12.13801745397955</v>
+        <v>12.09897976220604</v>
       </c>
       <c r="N15" t="n">
-        <v>269.0497662798379</v>
+        <v>267.4149089700499</v>
       </c>
       <c r="O15" t="n">
-        <v>16.40273654851037</v>
+        <v>16.35282571820693</v>
       </c>
       <c r="P15" t="n">
-        <v>324.2750340941658</v>
+        <v>324.2228768606489</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23610,28 +23748,28 @@
         <v>0.0697</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0775045558641399</v>
+        <v>0.08725636710022347</v>
       </c>
       <c r="J16" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K16" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001019535591215259</v>
+        <v>0.001311194989548681</v>
       </c>
       <c r="M16" t="n">
-        <v>13.47254210668834</v>
+        <v>13.40880397228111</v>
       </c>
       <c r="N16" t="n">
-        <v>306.6188608952243</v>
+        <v>304.5755097607355</v>
       </c>
       <c r="O16" t="n">
-        <v>17.5105357112575</v>
+        <v>17.45209184484013</v>
       </c>
       <c r="P16" t="n">
-        <v>327.9233044298917</v>
+        <v>327.8216525929968</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23688,28 +23826,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02802388875862475</v>
+        <v>0.04241661336409339</v>
       </c>
       <c r="J17" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K17" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001343612651628634</v>
+        <v>0.0003122862507621837</v>
       </c>
       <c r="M17" t="n">
-        <v>13.45594098002176</v>
+        <v>13.41282710222463</v>
       </c>
       <c r="N17" t="n">
-        <v>313.4949831008059</v>
+        <v>311.5354034864176</v>
       </c>
       <c r="O17" t="n">
-        <v>17.70578953621684</v>
+        <v>17.65036553407372</v>
       </c>
       <c r="P17" t="n">
-        <v>334.4536532793447</v>
+        <v>334.3054940108357</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23747,7 +23885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R354"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50023,6 +50161,186 @@
         </is>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-38.22457592122294,174.7134545468032</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-38.22390705019664,174.7137677955008</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-38.22323326145227,174.71405198100368</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-38.22255896999094,174.71433322987016</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-38.22193994378729,174.71494156364844</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-38.221113449903775,174.7145912303944</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-38.220356307600426,174.71466423948672</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>-38.21964443987302,174.71464825710027</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>-38.21894457978001,174.71451761348067</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>-38.218240158427506,174.71446161871913</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>-38.21752386571113,174.7144806347528</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>-38.21682270623704,174.71426945647832</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>-38.216144281149234,174.71390610437118</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>-38.2154248937662,174.7139946031847</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>-38.21473312304589,174.71379388350877</t>
+        </is>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>-38.214039129156006,174.71361636925818</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-38.22456836943303,174.7134098578088</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-38.22392117937704,174.7138514078325</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-38.22324577377155,174.7141260252823</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-38.22256519239548,174.71437005224982</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-38.2211062921513,174.71447657851306</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>-38.22036401594657,174.71451494420901</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-38.219656594182275,174.71444904208488</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>-38.218951662784676,174.7144015192586</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>-38.2182503752514,174.7142941592073</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>-38.21754598105329,174.71417959765503</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>-38.21684915118324,174.71397798699783</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>-38.21614275434022,174.7139220902963</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>-38.215440807967155,174.71382798082686</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>-38.214740554872506,174.713716071704</t>
+        </is>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>-38.21404787107474,174.7135248401393</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:R357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18636,7 +18636,9 @@
       <c r="E356" t="n">
         <v>303.0314285714285</v>
       </c>
-      <c r="F356" t="inlineStr"/>
+      <c r="F356" t="n">
+        <v>311.6155555555555</v>
+      </c>
       <c r="G356" t="n">
         <v>329.79</v>
       </c>
@@ -18671,6 +18673,60 @@
         <v>347.9166666666667</v>
       </c>
       <c r="R356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>334.2628571428572</v>
+      </c>
+      <c r="C357" t="n">
+        <v>317.43</v>
+      </c>
+      <c r="D357" t="n">
+        <v>302.6372727272728</v>
+      </c>
+      <c r="E357" t="n">
+        <v>294.6557142857143</v>
+      </c>
+      <c r="F357" t="n">
+        <v>285.5633333333333</v>
+      </c>
+      <c r="G357" t="n">
+        <v>303.46</v>
+      </c>
+      <c r="H357" t="n">
+        <v>292.4972727272728</v>
+      </c>
+      <c r="I357" t="n">
+        <v>293.8189655172414</v>
+      </c>
+      <c r="J357" t="n">
+        <v>300.6166666666667</v>
+      </c>
+      <c r="K357" t="n">
+        <v>300.97</v>
+      </c>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="n">
+        <v>312.85</v>
+      </c>
+      <c r="O357" t="n">
+        <v>322.83</v>
+      </c>
+      <c r="P357" t="n">
+        <v>322.39</v>
+      </c>
+      <c r="Q357" t="inlineStr"/>
+      <c r="R357" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18687,7 +18743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22495,6 +22551,16 @@
       </c>
       <c r="B380" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -22668,28 +22734,28 @@
         <v>0.0788</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07314757974948521</v>
+        <v>-0.07397215671195509</v>
       </c>
       <c r="J2" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009176594957474027</v>
+        <v>0.0009460310381116388</v>
       </c>
       <c r="M2" t="n">
-        <v>12.41407668709966</v>
+        <v>12.36806361418475</v>
       </c>
       <c r="N2" t="n">
-        <v>313.9423608746073</v>
+        <v>312.6961339686935</v>
       </c>
       <c r="O2" t="n">
-        <v>17.71841869001315</v>
+        <v>17.68321616586455</v>
       </c>
       <c r="P2" t="n">
-        <v>337.2304721683027</v>
+        <v>337.238941677691</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22746,28 +22812,28 @@
         <v>0.0683</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1689994829341291</v>
+        <v>-0.1649683031303033</v>
       </c>
       <c r="J3" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008319819369966064</v>
+        <v>0.007982737795400818</v>
       </c>
       <c r="M3" t="n">
-        <v>9.863624440337519</v>
+        <v>9.847897662152032</v>
       </c>
       <c r="N3" t="n">
-        <v>188.1585631674044</v>
+        <v>187.5856135348434</v>
       </c>
       <c r="O3" t="n">
-        <v>13.71709018587413</v>
+        <v>13.69618974513873</v>
       </c>
       <c r="P3" t="n">
-        <v>315.9888200221375</v>
+        <v>315.9478397453981</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22824,28 +22890,28 @@
         <v>0.0596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1443629831210976</v>
+        <v>-0.1456909703948522</v>
       </c>
       <c r="J4" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005345591684266737</v>
+        <v>0.005485527333897511</v>
       </c>
       <c r="M4" t="n">
-        <v>10.83028551633106</v>
+        <v>10.79654797824054</v>
       </c>
       <c r="N4" t="n">
-        <v>206.7316655850753</v>
+        <v>205.9753154106754</v>
       </c>
       <c r="O4" t="n">
-        <v>14.37816628033892</v>
+        <v>14.35184014022855</v>
       </c>
       <c r="P4" t="n">
-        <v>308.1943649162519</v>
+        <v>308.2080265395721</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22902,28 +22968,28 @@
         <v>0.0418</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09479263123102384</v>
+        <v>-0.09790359603051796</v>
       </c>
       <c r="J5" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K5" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001094378994174972</v>
+        <v>0.001176027305217375</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6057360876981</v>
+        <v>15.56321694555559</v>
       </c>
       <c r="N5" t="n">
-        <v>432.5103983566476</v>
+        <v>430.9266660889874</v>
       </c>
       <c r="O5" t="n">
-        <v>20.79688434253188</v>
+        <v>20.75877323179256</v>
       </c>
       <c r="P5" t="n">
-        <v>301.3258062320105</v>
+        <v>301.3584182328742</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22980,28 +23046,28 @@
         <v>0.0554</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04567585344330854</v>
+        <v>-0.04835480237152284</v>
       </c>
       <c r="J6" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K6" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001432907324580013</v>
+        <v>0.0001630452117732384</v>
       </c>
       <c r="M6" t="n">
-        <v>20.20812438631393</v>
+        <v>20.15042940476427</v>
       </c>
       <c r="N6" t="n">
-        <v>789.6428781449026</v>
+        <v>784.5402178560072</v>
       </c>
       <c r="O6" t="n">
-        <v>28.10058501428222</v>
+        <v>28.00964508621998</v>
       </c>
       <c r="P6" t="n">
-        <v>301.4018392392575</v>
+        <v>301.4294109559968</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23052,28 +23118,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1163320135555317</v>
+        <v>-0.1282261075094834</v>
       </c>
       <c r="J7" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K7" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001905275816042606</v>
+        <v>0.002327506986542383</v>
       </c>
       <c r="M7" t="n">
-        <v>14.86213634248366</v>
+        <v>14.87431153902064</v>
       </c>
       <c r="N7" t="n">
-        <v>372.3698084391803</v>
+        <v>371.8431273821345</v>
       </c>
       <c r="O7" t="n">
-        <v>19.29688597777321</v>
+        <v>19.28323435998574</v>
       </c>
       <c r="P7" t="n">
-        <v>321.8743446327294</v>
+        <v>321.9965199515597</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23130,28 +23196,28 @@
         <v>0.065</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0585127542853261</v>
+        <v>-0.07489341737920407</v>
       </c>
       <c r="J8" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K8" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005158288328335203</v>
+        <v>0.0008472048618062278</v>
       </c>
       <c r="M8" t="n">
-        <v>14.69223223045552</v>
+        <v>14.72727468992237</v>
       </c>
       <c r="N8" t="n">
-        <v>353.7296689094912</v>
+        <v>354.1740813472978</v>
       </c>
       <c r="O8" t="n">
-        <v>18.80770238252114</v>
+        <v>18.81951331324213</v>
       </c>
       <c r="P8" t="n">
-        <v>315.8133088183445</v>
+        <v>315.9818678615727</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23202,28 +23268,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2186195349412391</v>
+        <v>-0.2293021727372993</v>
       </c>
       <c r="J9" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K9" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006067213218232226</v>
+        <v>0.006709596444234633</v>
       </c>
       <c r="M9" t="n">
-        <v>15.30342102234545</v>
+        <v>15.30140233073793</v>
       </c>
       <c r="N9" t="n">
-        <v>401.8691189887609</v>
+        <v>401.1578655017037</v>
       </c>
       <c r="O9" t="n">
-        <v>20.04667351429561</v>
+        <v>20.02892572011049</v>
       </c>
       <c r="P9" t="n">
-        <v>313.9481529713</v>
+        <v>314.0605366402556</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23280,28 +23346,28 @@
         <v>0.1038</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3076309410771488</v>
+        <v>-0.311621915154693</v>
       </c>
       <c r="J10" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K10" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01712927502322836</v>
+        <v>0.01769887337572729</v>
       </c>
       <c r="M10" t="n">
-        <v>12.91703998600816</v>
+        <v>12.88965478455399</v>
       </c>
       <c r="N10" t="n">
-        <v>289.4990526880941</v>
+        <v>288.5224936098392</v>
       </c>
       <c r="O10" t="n">
-        <v>17.01467168910685</v>
+        <v>16.98594988835888</v>
       </c>
       <c r="P10" t="n">
-        <v>313.9748835670844</v>
+        <v>314.0157969658148</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23358,28 +23424,28 @@
         <v>0.0857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08308088080501524</v>
+        <v>-0.08741040468524605</v>
       </c>
       <c r="J11" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K11" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001020575850383953</v>
+        <v>0.001137767531548373</v>
       </c>
       <c r="M11" t="n">
-        <v>14.41654713348082</v>
+        <v>14.3858681970271</v>
       </c>
       <c r="N11" t="n">
-        <v>370.9216127894472</v>
+        <v>369.6936012320892</v>
       </c>
       <c r="O11" t="n">
-        <v>19.25932534616535</v>
+        <v>19.22741795541173</v>
       </c>
       <c r="P11" t="n">
-        <v>309.2299561869391</v>
+        <v>309.2735860366524</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23439,7 +23505,7 @@
         <v>-0.01111068947792467</v>
       </c>
       <c r="J12" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K12" t="n">
         <v>268</v>
@@ -23517,7 +23583,7 @@
         <v>-0.1739846075897682</v>
       </c>
       <c r="J13" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K13" t="n">
         <v>246</v>
@@ -23592,28 +23658,28 @@
         <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07923768647840621</v>
+        <v>0.06774559841136339</v>
       </c>
       <c r="J14" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K14" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001230952702781618</v>
+        <v>0.0009047668175777845</v>
       </c>
       <c r="M14" t="n">
-        <v>12.89628021364985</v>
+        <v>12.90911782200164</v>
       </c>
       <c r="N14" t="n">
-        <v>279.8558703847682</v>
+        <v>279.5765358036516</v>
       </c>
       <c r="O14" t="n">
-        <v>16.72889328033293</v>
+        <v>16.72054232983044</v>
       </c>
       <c r="P14" t="n">
-        <v>325.4489041316714</v>
+        <v>325.5652905894086</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23670,28 +23736,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.136795711825402</v>
+        <v>0.1330153185089749</v>
       </c>
       <c r="J15" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K15" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003765729567866805</v>
+        <v>0.00358861263891741</v>
       </c>
       <c r="M15" t="n">
-        <v>12.09897976220604</v>
+        <v>12.0707254093987</v>
       </c>
       <c r="N15" t="n">
-        <v>267.4149089700499</v>
+        <v>266.445354412804</v>
       </c>
       <c r="O15" t="n">
-        <v>16.35282571820693</v>
+        <v>16.32315393583005</v>
       </c>
       <c r="P15" t="n">
-        <v>324.2228768606489</v>
+        <v>324.2616608089795</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23748,28 +23814,28 @@
         <v>0.0697</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08725636710022347</v>
+        <v>0.08129644198498787</v>
       </c>
       <c r="J16" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K16" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001311194989548681</v>
+        <v>0.001146699804463025</v>
       </c>
       <c r="M16" t="n">
-        <v>13.40880397228111</v>
+        <v>13.38962459139083</v>
       </c>
       <c r="N16" t="n">
-        <v>304.5755097607355</v>
+        <v>303.5987785028552</v>
       </c>
       <c r="O16" t="n">
-        <v>17.45209184484013</v>
+        <v>17.42408615976331</v>
       </c>
       <c r="P16" t="n">
-        <v>327.8216525929968</v>
+        <v>327.8840517084594</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23829,7 +23895,7 @@
         <v>0.04241661336409339</v>
       </c>
       <c r="J17" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K17" t="n">
         <v>228</v>
@@ -23885,7 +23951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:R357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50279,7 +50345,11 @@
           <t>-38.22256519239548,174.71437005224982</t>
         </is>
       </c>
-      <c r="F356" t="inlineStr"/>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-38.221860812000855,174.71447328242832</t>
+        </is>
+      </c>
       <c r="G356" t="inlineStr">
         <is>
           <t>-38.2211062921513,174.71447657851306</t>
@@ -50336,6 +50406,86 @@
         </is>
       </c>
       <c r="R356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-38.22457075279164,174.71342396172471</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-38.22391436013633,174.71381105352435</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-38.22325411014447,174.71417535768953</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-38.22258099908364,174.71446359196932</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-38.221909977600674,174.7147642301617</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>-38.22112500726839,174.71477635849556</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>-38.22034589381103,174.71486592791737</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>-38.219635677043435,174.7147918806485</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>-38.218936134984624,174.7146560256938</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>-38.21823210892182,174.71459355187633</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>-38.2161148599168,174.71421414508043</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>-38.21542402026503,174.71400374870524</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>-38.214721890387004,174.71391148927225</t>
+        </is>
+      </c>
+      <c r="Q357" t="inlineStr"/>
+      <c r="R357" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R357"/>
+  <dimension ref="A1:R358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18725,10 +18725,72 @@
       <c r="P357" t="n">
         <v>322.39</v>
       </c>
-      <c r="Q357" t="inlineStr"/>
+      <c r="Q357" t="n">
+        <v>291.28</v>
+      </c>
       <c r="R357" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>353.9314285714286</v>
+      </c>
+      <c r="C358" t="n">
+        <v>326.21</v>
+      </c>
+      <c r="D358" t="n">
+        <v>321.9627272727272</v>
+      </c>
+      <c r="E358" t="n">
+        <v>317.8928571428572</v>
+      </c>
+      <c r="F358" t="n">
+        <v>313.83</v>
+      </c>
+      <c r="G358" t="n">
+        <v>317.64</v>
+      </c>
+      <c r="H358" t="n">
+        <v>314.7727272727273</v>
+      </c>
+      <c r="I358" t="n">
+        <v>319.2027586206897</v>
+      </c>
+      <c r="J358" t="n">
+        <v>321.3</v>
+      </c>
+      <c r="K358" t="n">
+        <v>323.47</v>
+      </c>
+      <c r="L358" t="n">
+        <v>310.59</v>
+      </c>
+      <c r="M358" t="n">
+        <v>335.7627272727273</v>
+      </c>
+      <c r="N358" t="n">
+        <v>340.1</v>
+      </c>
+      <c r="O358" t="n">
+        <v>346.84</v>
+      </c>
+      <c r="P358" t="n">
+        <v>353.68</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>322.34</v>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18743,7 +18805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22561,6 +22623,16 @@
       </c>
       <c r="B381" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -22734,28 +22806,28 @@
         <v>0.0788</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07397215671195509</v>
+        <v>-0.05982338431943893</v>
       </c>
       <c r="J2" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009460310381116388</v>
+        <v>0.0006211941352500805</v>
       </c>
       <c r="M2" t="n">
-        <v>12.36806361418475</v>
+        <v>12.40636665409246</v>
       </c>
       <c r="N2" t="n">
-        <v>312.6961339686935</v>
+        <v>312.8131596090342</v>
       </c>
       <c r="O2" t="n">
-        <v>17.68321616586455</v>
+        <v>17.68652480305371</v>
       </c>
       <c r="P2" t="n">
-        <v>337.238941677691</v>
+        <v>337.0934609863907</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22812,28 +22884,28 @@
         <v>0.0683</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1649683031303033</v>
+        <v>-0.1549812857280554</v>
       </c>
       <c r="J3" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K3" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007982737795400818</v>
+        <v>0.007073479991188902</v>
       </c>
       <c r="M3" t="n">
-        <v>9.847897662152032</v>
+        <v>9.86280828639739</v>
       </c>
       <c r="N3" t="n">
-        <v>187.5856135348434</v>
+        <v>187.6647447910152</v>
       </c>
       <c r="O3" t="n">
-        <v>13.69618974513873</v>
+        <v>13.69907824603594</v>
       </c>
       <c r="P3" t="n">
-        <v>315.9478397453981</v>
+        <v>315.8462010682833</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22890,28 +22962,28 @@
         <v>0.0596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1456909703948522</v>
+        <v>-0.1330158722865938</v>
       </c>
       <c r="J4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K4" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005485527333897511</v>
+        <v>0.004586661683329885</v>
       </c>
       <c r="M4" t="n">
-        <v>10.79654797824054</v>
+        <v>10.82361951483492</v>
       </c>
       <c r="N4" t="n">
-        <v>205.9753154106754</v>
+        <v>206.3377083559031</v>
       </c>
       <c r="O4" t="n">
-        <v>14.35184014022855</v>
+        <v>14.3644599047755</v>
       </c>
       <c r="P4" t="n">
-        <v>308.2080265395721</v>
+        <v>308.0774976037067</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22968,28 +23040,28 @@
         <v>0.0418</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09790359603051796</v>
+        <v>-0.08395986790208312</v>
       </c>
       <c r="J5" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K5" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001176027305217375</v>
+        <v>0.0008689299041976239</v>
       </c>
       <c r="M5" t="n">
-        <v>15.56321694555559</v>
+        <v>15.57152882288244</v>
       </c>
       <c r="N5" t="n">
-        <v>430.9266660889874</v>
+        <v>430.655506541606</v>
       </c>
       <c r="O5" t="n">
-        <v>20.75877323179256</v>
+        <v>20.75224100047043</v>
       </c>
       <c r="P5" t="n">
-        <v>301.3584182328742</v>
+        <v>301.212093184402</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23046,28 +23118,28 @@
         <v>0.0554</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04835480237152284</v>
+        <v>-0.03757630755593228</v>
       </c>
       <c r="J6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001630452117732384</v>
+        <v>9.919916257805639e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>20.15042940476427</v>
+        <v>20.11635839507972</v>
       </c>
       <c r="N6" t="n">
-        <v>784.5402178560072</v>
+        <v>782.069270190745</v>
       </c>
       <c r="O6" t="n">
-        <v>28.00964508621998</v>
+        <v>27.96550142927434</v>
       </c>
       <c r="P6" t="n">
-        <v>301.4294109559968</v>
+        <v>301.3199342223356</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23118,28 +23190,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1282261075094834</v>
+        <v>-0.1290166921192349</v>
       </c>
       <c r="J7" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K7" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002327506986542383</v>
+        <v>0.002375584519619167</v>
       </c>
       <c r="M7" t="n">
-        <v>14.87431153902064</v>
+        <v>14.8223087366518</v>
       </c>
       <c r="N7" t="n">
-        <v>371.8431273821345</v>
+        <v>370.4332922368384</v>
       </c>
       <c r="O7" t="n">
-        <v>19.28323435998574</v>
+        <v>19.246643661606</v>
       </c>
       <c r="P7" t="n">
-        <v>321.9965199515597</v>
+        <v>322.0046487840493</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23196,28 +23268,28 @@
         <v>0.065</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07489341737920407</v>
+        <v>-0.07434910166541915</v>
       </c>
       <c r="J8" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K8" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008472048618062278</v>
+        <v>0.0008415240035584137</v>
       </c>
       <c r="M8" t="n">
-        <v>14.72727468992237</v>
+        <v>14.67352034071925</v>
       </c>
       <c r="N8" t="n">
-        <v>354.1740813472978</v>
+        <v>352.8242900694759</v>
       </c>
       <c r="O8" t="n">
-        <v>18.81951331324213</v>
+        <v>18.78361759804207</v>
       </c>
       <c r="P8" t="n">
-        <v>315.9818678615727</v>
+        <v>315.9762610077738</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23268,28 +23340,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2293021727372993</v>
+        <v>-0.221194212987832</v>
       </c>
       <c r="J9" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K9" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006709596444234633</v>
+        <v>0.006287303067349037</v>
       </c>
       <c r="M9" t="n">
-        <v>15.30140233073793</v>
+        <v>15.28483801925733</v>
       </c>
       <c r="N9" t="n">
-        <v>401.1578655017037</v>
+        <v>400.1408029942681</v>
       </c>
       <c r="O9" t="n">
-        <v>20.02892572011049</v>
+        <v>20.00351976513804</v>
       </c>
       <c r="P9" t="n">
-        <v>314.0605366402556</v>
+        <v>313.9751551163331</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23346,28 +23418,28 @@
         <v>0.1038</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.311621915154693</v>
+        <v>-0.3003651001807218</v>
       </c>
       <c r="J10" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K10" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01769887337572729</v>
+        <v>0.01654146092626896</v>
       </c>
       <c r="M10" t="n">
-        <v>12.88965478455399</v>
+        <v>12.89597916520334</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5224936098392</v>
+        <v>288.3160007462991</v>
       </c>
       <c r="O10" t="n">
-        <v>16.98594988835888</v>
+        <v>16.97987045728851</v>
       </c>
       <c r="P10" t="n">
-        <v>314.0157969658148</v>
+        <v>313.9002801638818</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23424,28 +23496,28 @@
         <v>0.0857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08741040468524605</v>
+        <v>-0.0758500508860647</v>
       </c>
       <c r="J11" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K11" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001137767531548373</v>
+        <v>0.0008611181301719784</v>
       </c>
       <c r="M11" t="n">
-        <v>14.3858681970271</v>
+        <v>14.39316694447769</v>
       </c>
       <c r="N11" t="n">
-        <v>369.6936012320892</v>
+        <v>369.3209635454464</v>
       </c>
       <c r="O11" t="n">
-        <v>19.22741795541173</v>
+        <v>19.21772524378071</v>
       </c>
       <c r="P11" t="n">
-        <v>309.2735860366524</v>
+        <v>309.1569656670711</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23502,28 +23574,28 @@
         <v>0.0844</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01111068947792467</v>
+        <v>-0.004996293570451087</v>
       </c>
       <c r="J12" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K12" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L12" t="n">
-        <v>1.157981224531035e-05</v>
+        <v>2.358731033824668e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>18.48801838647493</v>
+        <v>18.44715355594524</v>
       </c>
       <c r="N12" t="n">
-        <v>564.7206662002146</v>
+        <v>562.8775955828536</v>
       </c>
       <c r="O12" t="n">
-        <v>23.76385209094297</v>
+        <v>23.72504152963391</v>
       </c>
       <c r="P12" t="n">
-        <v>302.5275141219215</v>
+        <v>302.4641808622373</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23580,28 +23652,28 @@
         <v>0.0737</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1739846075897682</v>
+        <v>-0.1560564853974642</v>
       </c>
       <c r="J13" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K13" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003452815567802747</v>
+        <v>0.002788408620768346</v>
       </c>
       <c r="M13" t="n">
-        <v>16.25633285035546</v>
+        <v>16.26910033280327</v>
       </c>
       <c r="N13" t="n">
-        <v>477.0595552787376</v>
+        <v>477.3714330734383</v>
       </c>
       <c r="O13" t="n">
-        <v>21.8416930497326</v>
+        <v>21.84883138919421</v>
       </c>
       <c r="P13" t="n">
-        <v>316.5914272863087</v>
+        <v>316.4065221662518</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23658,28 +23730,28 @@
         <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06774559841136339</v>
+        <v>0.07766792709596849</v>
       </c>
       <c r="J14" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K14" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009047668175777845</v>
+        <v>0.001195829392673042</v>
       </c>
       <c r="M14" t="n">
-        <v>12.90911782200164</v>
+        <v>12.90312372424935</v>
       </c>
       <c r="N14" t="n">
-        <v>279.5765358036516</v>
+        <v>279.0918444910644</v>
       </c>
       <c r="O14" t="n">
-        <v>16.72054232983044</v>
+        <v>16.70604215519236</v>
       </c>
       <c r="P14" t="n">
-        <v>325.5652905894086</v>
+        <v>325.4646937165396</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23736,28 +23808,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1330153185089749</v>
+        <v>0.1475292570690152</v>
       </c>
       <c r="J15" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K15" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00358861263891741</v>
+        <v>0.004422124159616514</v>
       </c>
       <c r="M15" t="n">
-        <v>12.0707254093987</v>
+        <v>12.09759274440353</v>
       </c>
       <c r="N15" t="n">
-        <v>266.445354412804</v>
+        <v>266.8232766420737</v>
       </c>
       <c r="O15" t="n">
-        <v>16.32315393583005</v>
+        <v>16.33472609632845</v>
       </c>
       <c r="P15" t="n">
-        <v>324.2616608089795</v>
+        <v>324.1126007122731</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23814,28 +23886,28 @@
         <v>0.0697</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08129644198498787</v>
+        <v>0.09947598177874355</v>
       </c>
       <c r="J16" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K16" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001146699804463025</v>
+        <v>0.001717164296027862</v>
       </c>
       <c r="M16" t="n">
-        <v>13.38962459139083</v>
+        <v>13.41876019615274</v>
       </c>
       <c r="N16" t="n">
-        <v>303.5987785028552</v>
+        <v>304.5906643745517</v>
       </c>
       <c r="O16" t="n">
-        <v>17.42408615976331</v>
+        <v>17.45252601701403</v>
       </c>
       <c r="P16" t="n">
-        <v>327.8840517084594</v>
+        <v>327.6935183343446</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23892,28 +23964,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04241661336409339</v>
+        <v>-0.00411556210188182</v>
       </c>
       <c r="J17" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K17" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003122862507621837</v>
+        <v>2.906081092768353e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>13.41282710222463</v>
+        <v>13.54512522315471</v>
       </c>
       <c r="N17" t="n">
-        <v>311.5354034864176</v>
+        <v>317.8533486308136</v>
       </c>
       <c r="O17" t="n">
-        <v>17.65036553407372</v>
+        <v>17.82844212573868</v>
       </c>
       <c r="P17" t="n">
-        <v>334.3054940108357</v>
+        <v>334.7868555938301</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23951,7 +24023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R357"/>
+  <dimension ref="A1:R358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50484,10 +50556,106 @@
           <t>-38.214721890387004,174.71391148927225</t>
         </is>
       </c>
-      <c r="Q357" t="inlineStr"/>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>-38.213986542600665,174.71416694170918</t>
+        </is>
+      </c>
       <c r="R357" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-38.22453363259487,174.71320429811843</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-38.22389779007772,174.7137129970522</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-38.223217638572244,174.71395952975473</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-38.22253714565021,174.7142040803657</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-38.22185663288067,174.7144485518258</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-38.221114928352996,174.71461491221527</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>-38.22035900153111,174.7146120638479</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>-38.219653312005754,174.71450283909925</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>-38.21895050416238,174.71442050982574</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>-38.21824774001905,174.71433735253189</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>-38.21752795635549,174.71442495313983</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>-38.21684245836558,174.71405175430598</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>-38.21614436777663,174.7139051973683</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>-38.21545001925485,174.71373153709328</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>-38.21475577209049,174.71355674451456</t>
+        </is>
+      </c>
+      <c r="Q358" t="inlineStr">
+        <is>
+          <t>-38.214020176057346,174.71381480823368</t>
+        </is>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R358"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18794,6 +18794,112 @@
         </is>
       </c>
     </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>320.7671428571429</v>
+      </c>
+      <c r="C359" t="n">
+        <v>310.83</v>
+      </c>
+      <c r="D359" t="n">
+        <v>299.4436363636364</v>
+      </c>
+      <c r="E359" t="n">
+        <v>291.5242857142857</v>
+      </c>
+      <c r="F359" t="n">
+        <v>305.34</v>
+      </c>
+      <c r="G359" t="n">
+        <v>326.34</v>
+      </c>
+      <c r="H359" t="n">
+        <v>297.3936363636363</v>
+      </c>
+      <c r="I359" t="n">
+        <v>301.9337931034482</v>
+      </c>
+      <c r="J359" t="n">
+        <v>314.63</v>
+      </c>
+      <c r="K359" t="n">
+        <v>311.11</v>
+      </c>
+      <c r="L359" t="n">
+        <v>305.81</v>
+      </c>
+      <c r="M359" t="n">
+        <v>320.3536363636364</v>
+      </c>
+      <c r="N359" t="n">
+        <v>334.79</v>
+      </c>
+      <c r="O359" t="n">
+        <v>333.78</v>
+      </c>
+      <c r="P359" t="n">
+        <v>337.95</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>316.16</v>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>337.4242857142857</v>
+      </c>
+      <c r="C360" t="n">
+        <v>315.98</v>
+      </c>
+      <c r="D360" t="n">
+        <v>315.7109090909091</v>
+      </c>
+      <c r="E360" t="n">
+        <v>307.8385714285715</v>
+      </c>
+      <c r="F360" t="n">
+        <v>284.8266666666667</v>
+      </c>
+      <c r="G360" t="n">
+        <v>319.06</v>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="n">
+        <v>329.3844827586207</v>
+      </c>
+      <c r="J360" t="n">
+        <v>328.2433333333333</v>
+      </c>
+      <c r="K360" t="n">
+        <v>294.1799999999999</v>
+      </c>
+      <c r="L360" t="inlineStr"/>
+      <c r="M360" t="inlineStr"/>
+      <c r="N360" t="inlineStr"/>
+      <c r="O360" t="inlineStr"/>
+      <c r="P360" t="inlineStr"/>
+      <c r="Q360" t="inlineStr"/>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18805,7 +18911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22633,6 +22739,26 @@
       </c>
       <c r="B382" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>
@@ -22806,28 +22932,28 @@
         <v>0.0788</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05982338431943893</v>
+        <v>-0.06944424431066752</v>
       </c>
       <c r="J2" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006211941352500805</v>
+        <v>0.0008478728548669823</v>
       </c>
       <c r="M2" t="n">
-        <v>12.40636665409246</v>
+        <v>12.36510337061969</v>
       </c>
       <c r="N2" t="n">
-        <v>312.8131596090342</v>
+        <v>311.2155847321075</v>
       </c>
       <c r="O2" t="n">
-        <v>17.68652480305371</v>
+        <v>17.64130337396043</v>
       </c>
       <c r="P2" t="n">
-        <v>337.0934609863907</v>
+        <v>337.1926658647175</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22884,28 +23010,28 @@
         <v>0.0683</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1549812857280554</v>
+        <v>-0.1528204102926223</v>
       </c>
       <c r="J3" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K3" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007073479991188902</v>
+        <v>0.006974665054809592</v>
       </c>
       <c r="M3" t="n">
-        <v>9.86280828639739</v>
+        <v>9.808939261128613</v>
       </c>
       <c r="N3" t="n">
-        <v>187.6647447910152</v>
+        <v>186.3566952452823</v>
       </c>
       <c r="O3" t="n">
-        <v>13.69907824603594</v>
+        <v>13.65125251562223</v>
       </c>
       <c r="P3" t="n">
-        <v>315.8462010682833</v>
+        <v>315.8240724849645</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22962,28 +23088,28 @@
         <v>0.0596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1330158722865938</v>
+        <v>-0.1287745852667044</v>
       </c>
       <c r="J4" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004586661683329885</v>
+        <v>0.004353987390942504</v>
       </c>
       <c r="M4" t="n">
-        <v>10.82361951483492</v>
+        <v>10.8046610570811</v>
       </c>
       <c r="N4" t="n">
-        <v>206.3377083559031</v>
+        <v>205.3701988111215</v>
       </c>
       <c r="O4" t="n">
-        <v>14.3644599047755</v>
+        <v>14.33074313534094</v>
       </c>
       <c r="P4" t="n">
-        <v>308.0774976037067</v>
+        <v>308.0335158509371</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23040,28 +23166,28 @@
         <v>0.0418</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08395986790208312</v>
+        <v>-0.08299426955627026</v>
       </c>
       <c r="J5" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K5" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008689299041976239</v>
+        <v>0.0008608525855741123</v>
       </c>
       <c r="M5" t="n">
-        <v>15.57152882288244</v>
+        <v>15.5152955747794</v>
       </c>
       <c r="N5" t="n">
-        <v>430.655506541606</v>
+        <v>427.9108196732163</v>
       </c>
       <c r="O5" t="n">
-        <v>20.75224100047043</v>
+        <v>20.68600540639049</v>
       </c>
       <c r="P5" t="n">
-        <v>301.212093184402</v>
+        <v>301.2017856444531</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23118,28 +23244,28 @@
         <v>0.0554</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03757630755593228</v>
+        <v>-0.04577726721652654</v>
       </c>
       <c r="J6" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K6" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L6" t="n">
-        <v>9.919916257805639e-05</v>
+        <v>0.0001494797028710471</v>
       </c>
       <c r="M6" t="n">
-        <v>20.11635839507972</v>
+        <v>20.04125475193949</v>
       </c>
       <c r="N6" t="n">
-        <v>782.069270190745</v>
+        <v>776.7639214218021</v>
       </c>
       <c r="O6" t="n">
-        <v>27.96550142927434</v>
+        <v>27.8704847719196</v>
       </c>
       <c r="P6" t="n">
-        <v>301.3199342223356</v>
+        <v>301.4037573666063</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23190,28 +23316,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1290166921192349</v>
+        <v>-0.1229320821547308</v>
       </c>
       <c r="J7" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K7" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002375584519619167</v>
+        <v>0.002191338864206416</v>
       </c>
       <c r="M7" t="n">
-        <v>14.8223087366518</v>
+        <v>14.73555525410223</v>
       </c>
       <c r="N7" t="n">
-        <v>370.4332922368384</v>
+        <v>367.8582663361286</v>
       </c>
       <c r="O7" t="n">
-        <v>19.246643661606</v>
+        <v>19.17963154849771</v>
       </c>
       <c r="P7" t="n">
-        <v>322.0046487840493</v>
+        <v>321.9418961275172</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23268,28 +23394,28 @@
         <v>0.065</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.07434910166541915</v>
+        <v>-0.08667404659807131</v>
       </c>
       <c r="J8" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K8" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008415240035584137</v>
+        <v>0.001148888028020045</v>
       </c>
       <c r="M8" t="n">
-        <v>14.67352034071925</v>
+        <v>14.68782947525905</v>
       </c>
       <c r="N8" t="n">
-        <v>352.8242900694759</v>
+        <v>352.5247851725901</v>
       </c>
       <c r="O8" t="n">
-        <v>18.78361759804207</v>
+        <v>18.77564340236015</v>
       </c>
       <c r="P8" t="n">
-        <v>315.9762610077738</v>
+        <v>316.1036108522082</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23340,28 +23466,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.221194212987832</v>
+        <v>-0.2104277843300137</v>
       </c>
       <c r="J9" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K9" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006287303067349037</v>
+        <v>0.005755348431220497</v>
       </c>
       <c r="M9" t="n">
-        <v>15.28483801925733</v>
+        <v>15.27201026173027</v>
       </c>
       <c r="N9" t="n">
-        <v>400.1408029942681</v>
+        <v>399.0030123204428</v>
       </c>
       <c r="O9" t="n">
-        <v>20.00351976513804</v>
+        <v>19.97505975761882</v>
       </c>
       <c r="P9" t="n">
-        <v>313.9751551163331</v>
+        <v>313.8611233343352</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23418,28 +23544,28 @@
         <v>0.1038</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3003651001807218</v>
+        <v>-0.278177937153035</v>
       </c>
       <c r="J10" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K10" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01654146092626896</v>
+        <v>0.01433918275775337</v>
       </c>
       <c r="M10" t="n">
-        <v>12.89597916520334</v>
+        <v>12.90603748830969</v>
       </c>
       <c r="N10" t="n">
-        <v>288.3160007462991</v>
+        <v>288.2289070502735</v>
       </c>
       <c r="O10" t="n">
-        <v>16.97987045728851</v>
+        <v>16.97730564754825</v>
       </c>
       <c r="P10" t="n">
-        <v>313.9002801638818</v>
+        <v>313.6715625549894</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23496,28 +23622,28 @@
         <v>0.0857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0758500508860647</v>
+        <v>-0.08216220839883724</v>
       </c>
       <c r="J11" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K11" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008611181301719784</v>
+        <v>0.001023565707910956</v>
       </c>
       <c r="M11" t="n">
-        <v>14.39316694447769</v>
+        <v>14.35019437833502</v>
       </c>
       <c r="N11" t="n">
-        <v>369.3209635454464</v>
+        <v>367.3025135656399</v>
       </c>
       <c r="O11" t="n">
-        <v>19.21772524378071</v>
+        <v>19.16513797408304</v>
       </c>
       <c r="P11" t="n">
-        <v>309.1569656670711</v>
+        <v>309.2210391389841</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23574,28 +23700,28 @@
         <v>0.0844</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.004996293570451087</v>
+        <v>-0.00246446513887937</v>
       </c>
       <c r="J12" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K12" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L12" t="n">
-        <v>2.358731033824668e-06</v>
+        <v>5.782855116986951e-07</v>
       </c>
       <c r="M12" t="n">
-        <v>18.44715355594524</v>
+        <v>18.39025221464918</v>
       </c>
       <c r="N12" t="n">
-        <v>562.8775955828536</v>
+        <v>560.8370958966959</v>
       </c>
       <c r="O12" t="n">
-        <v>23.72504152963391</v>
+        <v>23.68199940665264</v>
       </c>
       <c r="P12" t="n">
-        <v>302.4641808622373</v>
+        <v>302.4378759194069</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23652,28 +23778,28 @@
         <v>0.0737</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1560564853974642</v>
+        <v>-0.1500317331024668</v>
       </c>
       <c r="J13" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K13" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002788408620768346</v>
+        <v>0.002596547611623423</v>
       </c>
       <c r="M13" t="n">
-        <v>16.26910033280327</v>
+        <v>16.22994280984517</v>
       </c>
       <c r="N13" t="n">
-        <v>477.3714330734383</v>
+        <v>475.70163634133</v>
       </c>
       <c r="O13" t="n">
-        <v>21.84883138919421</v>
+        <v>21.81058541950055</v>
       </c>
       <c r="P13" t="n">
-        <v>316.4065221662518</v>
+        <v>316.3441795186943</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23730,28 +23856,28 @@
         <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07766792709596849</v>
+        <v>0.08330779596896197</v>
       </c>
       <c r="J14" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K14" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001195829392673042</v>
+        <v>0.001385772955210696</v>
       </c>
       <c r="M14" t="n">
-        <v>12.90312372424935</v>
+        <v>12.87721512577726</v>
       </c>
       <c r="N14" t="n">
-        <v>279.0918444910644</v>
+        <v>278.1680074041284</v>
       </c>
       <c r="O14" t="n">
-        <v>16.70604215519236</v>
+        <v>16.6783694468053</v>
       </c>
       <c r="P14" t="n">
-        <v>325.4646937165396</v>
+        <v>325.4073290380115</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23808,28 +23934,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1475292570690152</v>
+        <v>0.1519311864236504</v>
       </c>
       <c r="J15" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K15" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004422124159616514</v>
+        <v>0.00472351739460164</v>
       </c>
       <c r="M15" t="n">
-        <v>12.09759274440353</v>
+        <v>12.07240241378934</v>
       </c>
       <c r="N15" t="n">
-        <v>266.8232766420737</v>
+        <v>265.9016252463567</v>
       </c>
       <c r="O15" t="n">
-        <v>16.33472609632845</v>
+        <v>16.3064902798351</v>
       </c>
       <c r="P15" t="n">
-        <v>324.1126007122731</v>
+        <v>324.0672478804493</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23886,28 +24012,28 @@
         <v>0.0697</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09947598177874355</v>
+        <v>0.105331578718144</v>
       </c>
       <c r="J16" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K16" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001717164296027862</v>
+        <v>0.001938702402520254</v>
       </c>
       <c r="M16" t="n">
-        <v>13.41876019615274</v>
+        <v>13.39275838037837</v>
       </c>
       <c r="N16" t="n">
-        <v>304.5906643745517</v>
+        <v>303.6205095118335</v>
       </c>
       <c r="O16" t="n">
-        <v>17.45252601701403</v>
+        <v>17.42470973967238</v>
       </c>
       <c r="P16" t="n">
-        <v>327.6935183343446</v>
+        <v>327.6319563248309</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23964,28 +24090,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.00411556210188182</v>
+        <v>-0.01911482056258946</v>
       </c>
       <c r="J17" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K17" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L17" t="n">
-        <v>2.906081092768353e-06</v>
+        <v>6.292027352472473e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>13.54512522315471</v>
+        <v>13.5669300397877</v>
       </c>
       <c r="N17" t="n">
-        <v>317.8533486308136</v>
+        <v>317.9434120418725</v>
       </c>
       <c r="O17" t="n">
-        <v>17.82844212573868</v>
+        <v>17.83096778197618</v>
       </c>
       <c r="P17" t="n">
-        <v>334.7868555938301</v>
+        <v>334.9426620019173</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24023,7 +24149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R358"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50659,6 +50785,162 @@
         </is>
       </c>
     </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-38.22459622280757,174.71357468541365</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-38.22392681593437,174.71388476342827</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-38.22326013723119,174.71421102444776</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-38.222586908711236,174.714498563677</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>-38.22187265525907,174.71454336696002</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-38.221108744422764,174.71451585845048</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>-38.22034877506353,174.7148101261118</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>-38.21964131476019,174.71469947830863</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>-38.21894587041449,174.71449645943522</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>-38.21823915340523,174.71447809138795</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>-38.21752396317403,174.7144793080977</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>-38.21682659642835,174.71422658028993</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>-38.21613861786804,174.7139653996784</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>-38.21543587744147,174.71387960391127</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>-38.21473873933144,174.7137350806118</t>
+        </is>
+      </c>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>-38.21401348410097,174.7138848721673</t>
+        </is>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-38.224564786303524,174.71338865407262</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-38.223917096641436,174.7138272473649</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-38.223229437233364,174.71402935044526</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-38.22255612029831,174.71431636624334</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-38.22191136782302,174.7147724571618</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-38.221113919027594,174.71459874481823</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>-38.21966038538777,174.71438690124495</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>-38.21895532774701,174.71434144782623</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>-38.218227391694626,174.71467086711948</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr"/>
+      <c r="M360" t="inlineStr"/>
+      <c r="N360" t="inlineStr"/>
+      <c r="O360" t="inlineStr"/>
+      <c r="P360" t="inlineStr"/>
+      <c r="Q360" t="inlineStr"/>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R360"/>
+  <dimension ref="A1:R364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18900,6 +18900,240 @@
         </is>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="n">
+        <v>308.3966666666667</v>
+      </c>
+      <c r="D361" t="n">
+        <v>308.2754545454546</v>
+      </c>
+      <c r="E361" t="n">
+        <v>297.6971428571428</v>
+      </c>
+      <c r="F361" t="n">
+        <v>320.1755555555555</v>
+      </c>
+      <c r="G361" t="n">
+        <v>321.19</v>
+      </c>
+      <c r="H361" t="n">
+        <v>315.3454545454546</v>
+      </c>
+      <c r="I361" t="n">
+        <v>320.6831034482759</v>
+      </c>
+      <c r="J361" t="n">
+        <v>325.2677777777778</v>
+      </c>
+      <c r="K361" t="n">
+        <v>328.7533333333333</v>
+      </c>
+      <c r="L361" t="n">
+        <v>322.7066666666667</v>
+      </c>
+      <c r="M361" t="n">
+        <v>333.8554545454546</v>
+      </c>
+      <c r="N361" t="n">
+        <v>322.61</v>
+      </c>
+      <c r="O361" t="n">
+        <v>326.0533333333333</v>
+      </c>
+      <c r="P361" t="n">
+        <v>329.6266666666667</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>329.5166666666667</v>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>328.4457142857143</v>
+      </c>
+      <c r="C362" t="n">
+        <v>315.7666666666667</v>
+      </c>
+      <c r="D362" t="n">
+        <v>302.8681818181818</v>
+      </c>
+      <c r="E362" t="n">
+        <v>300.1614285714285</v>
+      </c>
+      <c r="F362" t="n">
+        <v>299.8955555555555</v>
+      </c>
+      <c r="G362" t="n">
+        <v>316.52</v>
+      </c>
+      <c r="H362" t="n">
+        <v>305.8781818181818</v>
+      </c>
+      <c r="I362" t="n">
+        <v>304.6662068965517</v>
+      </c>
+      <c r="J362" t="n">
+        <v>306.5177777777778</v>
+      </c>
+      <c r="K362" t="n">
+        <v>308.7033333333333</v>
+      </c>
+      <c r="L362" t="n">
+        <v>298.1166666666667</v>
+      </c>
+      <c r="M362" t="n">
+        <v>314.2881818181818</v>
+      </c>
+      <c r="N362" t="n">
+        <v>336.63</v>
+      </c>
+      <c r="O362" t="n">
+        <v>328.4933333333333</v>
+      </c>
+      <c r="P362" t="n">
+        <v>327.7166666666667</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>330.2266666666667</v>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>313.9285714285714</v>
+      </c>
+      <c r="C363" t="n">
+        <v>300.47</v>
+      </c>
+      <c r="D363" t="n">
+        <v>284.0809090909091</v>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="n">
+        <v>272.4166666666667</v>
+      </c>
+      <c r="G363" t="n">
+        <v>278.88</v>
+      </c>
+      <c r="H363" t="n">
+        <v>294.3409090909091</v>
+      </c>
+      <c r="I363" t="n">
+        <v>274.4541379310345</v>
+      </c>
+      <c r="J363" t="n">
+        <v>281.6633333333333</v>
+      </c>
+      <c r="K363" t="n">
+        <v>283.28</v>
+      </c>
+      <c r="L363" t="n">
+        <v>270.76</v>
+      </c>
+      <c r="M363" t="n">
+        <v>303.5209090909091</v>
+      </c>
+      <c r="N363" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="O363" t="n">
+        <v>321.98</v>
+      </c>
+      <c r="P363" t="n">
+        <v>325.56</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>342.87</v>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>336.11</v>
+      </c>
+      <c r="C364" t="n">
+        <v>322.3433333333333</v>
+      </c>
+      <c r="D364" t="n">
+        <v>306.79</v>
+      </c>
+      <c r="E364" t="n">
+        <v>300</v>
+      </c>
+      <c r="F364" t="n">
+        <v>307.9511111111111</v>
+      </c>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="n">
+        <v>322.63</v>
+      </c>
+      <c r="I364" t="n">
+        <v>311.7506896551724</v>
+      </c>
+      <c r="J364" t="n">
+        <v>311.7555555555556</v>
+      </c>
+      <c r="K364" t="n">
+        <v>308.4166666666666</v>
+      </c>
+      <c r="L364" t="n">
+        <v>302.4833333333333</v>
+      </c>
+      <c r="M364" t="n">
+        <v>321.14</v>
+      </c>
+      <c r="N364" t="n">
+        <v>334.71</v>
+      </c>
+      <c r="O364" t="n">
+        <v>321.3366666666666</v>
+      </c>
+      <c r="P364" t="n">
+        <v>327.5333333333333</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>332.5733333333333</v>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18911,7 +19145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B384"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22759,6 +22993,46 @@
       </c>
       <c r="B384" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -22932,28 +23206,28 @@
         <v>0.0788</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06944424431066752</v>
+        <v>-0.08959762128118635</v>
       </c>
       <c r="J2" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008478728548669823</v>
+        <v>0.001434660941799115</v>
       </c>
       <c r="M2" t="n">
-        <v>12.36510337061969</v>
+        <v>12.31480631109007</v>
       </c>
       <c r="N2" t="n">
-        <v>311.2155847321075</v>
+        <v>309.5286614326946</v>
       </c>
       <c r="O2" t="n">
-        <v>17.64130337396043</v>
+        <v>17.59342665408574</v>
       </c>
       <c r="P2" t="n">
-        <v>337.1926658647175</v>
+        <v>337.4015861606921</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23010,28 +23284,28 @@
         <v>0.0683</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1528204102926223</v>
+        <v>-0.153050888045498</v>
       </c>
       <c r="J3" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006974665054809592</v>
+        <v>0.007153741217791443</v>
       </c>
       <c r="M3" t="n">
-        <v>9.808939261128613</v>
+        <v>9.772950009823999</v>
       </c>
       <c r="N3" t="n">
-        <v>186.3566952452823</v>
+        <v>184.6293751955197</v>
       </c>
       <c r="O3" t="n">
-        <v>13.65125251562223</v>
+        <v>13.58783923939048</v>
       </c>
       <c r="P3" t="n">
-        <v>315.8240724849645</v>
+        <v>315.8263355710183</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23088,28 +23362,28 @@
         <v>0.0596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1287745852667044</v>
+        <v>-0.140257036467816</v>
       </c>
       <c r="J4" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004353987390942504</v>
+        <v>0.005273093973145015</v>
       </c>
       <c r="M4" t="n">
-        <v>10.8046610570811</v>
+        <v>10.74781368221944</v>
       </c>
       <c r="N4" t="n">
-        <v>205.3701988111215</v>
+        <v>203.9944186704975</v>
       </c>
       <c r="O4" t="n">
-        <v>14.33074313534094</v>
+        <v>14.28266147013565</v>
       </c>
       <c r="P4" t="n">
-        <v>308.0335158509371</v>
+        <v>308.1527675317597</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23166,28 +23440,28 @@
         <v>0.0418</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08299426955627026</v>
+        <v>-0.08246668421062092</v>
       </c>
       <c r="J5" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K5" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008608525855741123</v>
+        <v>0.0008687610294570991</v>
       </c>
       <c r="M5" t="n">
-        <v>15.5152955747794</v>
+        <v>15.35422989244703</v>
       </c>
       <c r="N5" t="n">
-        <v>427.9108196732163</v>
+        <v>423.1356624698847</v>
       </c>
       <c r="O5" t="n">
-        <v>20.68600540639049</v>
+        <v>20.57026160431327</v>
       </c>
       <c r="P5" t="n">
-        <v>301.2017856444531</v>
+        <v>301.1961820012894</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23244,28 +23518,28 @@
         <v>0.0554</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04577726721652654</v>
+        <v>-0.04612657415323325</v>
       </c>
       <c r="J6" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K6" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001494797028710471</v>
+        <v>0.0001557221221532012</v>
       </c>
       <c r="M6" t="n">
-        <v>20.04125475193949</v>
+        <v>19.94366035390347</v>
       </c>
       <c r="N6" t="n">
-        <v>776.7639214218021</v>
+        <v>769.229761516371</v>
       </c>
       <c r="O6" t="n">
-        <v>27.8704847719196</v>
+        <v>27.73499164442584</v>
       </c>
       <c r="P6" t="n">
-        <v>301.4037573666063</v>
+        <v>301.4076035368682</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23316,28 +23590,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1229320821547308</v>
+        <v>-0.1519679827070072</v>
       </c>
       <c r="J7" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K7" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002191338864206416</v>
+        <v>0.003370728233191178</v>
       </c>
       <c r="M7" t="n">
-        <v>14.73555525410223</v>
+        <v>14.76268759314422</v>
       </c>
       <c r="N7" t="n">
-        <v>367.8582663361286</v>
+        <v>369.640655455629</v>
       </c>
       <c r="O7" t="n">
-        <v>19.17963154849771</v>
+        <v>19.22604107598933</v>
       </c>
       <c r="P7" t="n">
-        <v>321.9418961275172</v>
+        <v>322.2428399411154</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23394,28 +23668,28 @@
         <v>0.065</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08667404659807131</v>
+        <v>-0.09892660782505863</v>
       </c>
       <c r="J8" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K8" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001148888028020045</v>
+        <v>0.001534195715397146</v>
       </c>
       <c r="M8" t="n">
-        <v>14.68782947525905</v>
+        <v>14.61579795400565</v>
       </c>
       <c r="N8" t="n">
-        <v>352.5247851725901</v>
+        <v>349.1909848383017</v>
       </c>
       <c r="O8" t="n">
-        <v>18.77564340236015</v>
+        <v>18.68665258515558</v>
       </c>
       <c r="P8" t="n">
-        <v>316.1036108522082</v>
+        <v>316.2307571260021</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23466,28 +23740,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2104277843300137</v>
+        <v>-0.2257266338890354</v>
       </c>
       <c r="J9" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K9" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005755348431220497</v>
+        <v>0.006734562219999352</v>
       </c>
       <c r="M9" t="n">
-        <v>15.27201026173027</v>
+        <v>15.24657597843926</v>
       </c>
       <c r="N9" t="n">
-        <v>399.0030123204428</v>
+        <v>398.0270555058196</v>
       </c>
       <c r="O9" t="n">
-        <v>19.97505975761882</v>
+        <v>19.95061541671884</v>
       </c>
       <c r="P9" t="n">
-        <v>313.8611233343352</v>
+        <v>314.0236375154755</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23544,28 +23818,28 @@
         <v>0.1038</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.278177937153035</v>
+        <v>-0.2785506217934895</v>
       </c>
       <c r="J10" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K10" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01433918275775337</v>
+        <v>0.01462493120554342</v>
       </c>
       <c r="M10" t="n">
-        <v>12.90603748830969</v>
+        <v>12.89676508507016</v>
       </c>
       <c r="N10" t="n">
-        <v>288.2289070502735</v>
+        <v>287.6569739735979</v>
       </c>
       <c r="O10" t="n">
-        <v>16.97730564754825</v>
+        <v>16.96045323609006</v>
       </c>
       <c r="P10" t="n">
-        <v>313.6715625549894</v>
+        <v>313.6756653661325</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23622,28 +23896,28 @@
         <v>0.0857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08216220839883724</v>
+        <v>-0.08166196863525345</v>
       </c>
       <c r="J11" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K11" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001023565707910956</v>
+        <v>0.001030256502176585</v>
       </c>
       <c r="M11" t="n">
-        <v>14.35019437833502</v>
+        <v>14.31797718093889</v>
       </c>
       <c r="N11" t="n">
-        <v>367.3025135656399</v>
+        <v>365.7656873827492</v>
       </c>
       <c r="O11" t="n">
-        <v>19.16513797408304</v>
+        <v>19.12500163092148</v>
       </c>
       <c r="P11" t="n">
-        <v>309.2210391389841</v>
+        <v>309.216274348751</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23700,28 +23974,28 @@
         <v>0.0844</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.00246446513887937</v>
+        <v>-0.01337445476061592</v>
       </c>
       <c r="J12" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K12" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L12" t="n">
-        <v>5.782855116986951e-07</v>
+        <v>1.739031123759727e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>18.39025221464918</v>
+        <v>18.33339803038666</v>
       </c>
       <c r="N12" t="n">
-        <v>560.8370958966959</v>
+        <v>557.8626309921726</v>
       </c>
       <c r="O12" t="n">
-        <v>23.68199940665264</v>
+        <v>23.61911579615487</v>
       </c>
       <c r="P12" t="n">
-        <v>302.4378759194069</v>
+        <v>302.5520799578666</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23778,28 +24052,28 @@
         <v>0.0737</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1500317331024668</v>
+        <v>-0.1333247799351685</v>
       </c>
       <c r="J13" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K13" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002596547611623423</v>
+        <v>0.002104249823312365</v>
       </c>
       <c r="M13" t="n">
-        <v>16.22994280984517</v>
+        <v>16.11670170429897</v>
       </c>
       <c r="N13" t="n">
-        <v>475.70163634133</v>
+        <v>470.5771797565146</v>
       </c>
       <c r="O13" t="n">
-        <v>21.81058541950055</v>
+        <v>21.69279096281791</v>
       </c>
       <c r="P13" t="n">
-        <v>316.3441795186943</v>
+        <v>316.1706581085015</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23856,28 +24130,28 @@
         <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08330779596896197</v>
+        <v>0.08246687322920172</v>
       </c>
       <c r="J14" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001385772955210696</v>
+        <v>0.001395766883542593</v>
       </c>
       <c r="M14" t="n">
-        <v>12.87721512577726</v>
+        <v>12.80532013745153</v>
       </c>
       <c r="N14" t="n">
-        <v>278.1680074041284</v>
+        <v>274.9450939947529</v>
       </c>
       <c r="O14" t="n">
-        <v>16.6783694468053</v>
+        <v>16.58146839078955</v>
       </c>
       <c r="P14" t="n">
-        <v>325.4073290380115</v>
+        <v>325.4158609676946</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23934,28 +24208,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1519311864236504</v>
+        <v>0.1415580135978595</v>
       </c>
       <c r="J15" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K15" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00472351739460164</v>
+        <v>0.004226930999523315</v>
       </c>
       <c r="M15" t="n">
-        <v>12.07240241378934</v>
+        <v>11.94334507253472</v>
       </c>
       <c r="N15" t="n">
-        <v>265.9016252463567</v>
+        <v>262.0869571539614</v>
       </c>
       <c r="O15" t="n">
-        <v>16.3064902798351</v>
+        <v>16.18909994885328</v>
       </c>
       <c r="P15" t="n">
-        <v>324.0672478804493</v>
+        <v>324.1747157226478</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24012,28 +24286,28 @@
         <v>0.0697</v>
       </c>
       <c r="I16" t="n">
-        <v>0.105331578718144</v>
+        <v>0.09717926807131307</v>
       </c>
       <c r="J16" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K16" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001938702402520254</v>
+        <v>0.001701883420209382</v>
       </c>
       <c r="M16" t="n">
-        <v>13.39275838037837</v>
+        <v>13.23081421950775</v>
       </c>
       <c r="N16" t="n">
-        <v>303.6205095118335</v>
+        <v>299.0588810691319</v>
       </c>
       <c r="O16" t="n">
-        <v>17.42470973967238</v>
+        <v>17.29331897205195</v>
       </c>
       <c r="P16" t="n">
-        <v>327.6319563248309</v>
+        <v>327.7180979942855</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24090,28 +24364,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01911482056258946</v>
+        <v>-0.02111153161107769</v>
       </c>
       <c r="J17" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K17" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L17" t="n">
-        <v>6.292027352472473e-05</v>
+        <v>7.917730452600136e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>13.5669300397877</v>
+        <v>13.41885939426905</v>
       </c>
       <c r="N17" t="n">
-        <v>317.9434120418725</v>
+        <v>313.0273160564686</v>
       </c>
       <c r="O17" t="n">
-        <v>17.83096778197618</v>
+        <v>17.69257799351097</v>
       </c>
       <c r="P17" t="n">
-        <v>334.9426620019173</v>
+        <v>334.9634047508148</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24149,7 +24423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R360"/>
+  <dimension ref="A1:R364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50941,6 +51215,362 @@
         </is>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-38.2239314082117,174.71391193930785</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-38.22324346964172,174.71411239008705</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-38.2225752592938,174.7144296253842</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>-38.221844657459854,174.71437768557303</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>-38.2211124050353,174.7145744937234</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>-38.220359338538294,174.7146055367125</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>-38.219654340428505,174.7144859826235</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>-38.21895326061322,174.7143753297344</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>-38.21825141035152,174.7142771931113</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>-38.2175380784292,174.71428717049264</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>-38.216840495055465,174.7140733935386</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>-38.21612542869633,174.71410349081282</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>-38.215427510655935,174.7139672044129</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>-38.214729726550516,174.7138294448959</t>
+        </is>
+      </c>
+      <c r="Q361" t="inlineStr">
+        <is>
+          <t>-38.21402794719296,174.71373344486653</t>
+        </is>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-38.22458173131734,174.71348892909506</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-38.223917499253496,174.71382962990702</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>-38.22325367436834,174.71417277888054</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>-38.222570608681764,174.7144021043173</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>-38.221882930006075,174.71460416977555</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-38.22111572443906,174.7146276639653</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>-38.22035376770974,174.714713431288</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>-38.21964321306825,174.7146683647136</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>-38.21894023466747,174.7145888312503</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>-38.218237481450636,174.7145054952275</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>-38.21751753615993,174.71456679151612</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>-38.216820352649705,174.71429539672454</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>-38.21614061030688,174.7139445386155</t>
+        </is>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>-38.21543015280576,174.71393954109905</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>-38.21472765832865,174.71385109917125</t>
+        </is>
+      </c>
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>-38.21402871600175,174.71372539544734</t>
+        </is>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-38.22460912894271,174.71365106041657</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-38.223946367668134,174.71400046568843</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-38.22328912988681,174.71438259655633</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-38.22193478763473,174.71491105051552</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-38.22114247780723,174.71505621398111</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>-38.22034697869718,174.71484491676657</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>-38.21962222317929,174.71501238500346</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>-38.21892296726364,174.7148718423938</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>-38.21821981901475,174.7147949814024</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>-38.21749468186289,174.71487787300697</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>-38.21680926872086,174.7144175582403</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>-38.216117426320515,174.71418727514376</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>-38.21542309983949,174.71401338551385</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>-38.21472532300181,174.71387554998316</t>
+        </is>
+      </c>
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>-38.214042406481504,174.71358205528918</t>
+        </is>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-38.224567266724655,174.7134033323548</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-38.22390508745621,174.7137561806111</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-38.22324627302807,174.71412897974392</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-38.22257091333075,174.7144039071465</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>-38.22186772756295,174.71451420643166</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>-38.22036362491705,174.71452251775943</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>-38.219648134879975,174.71458769473875</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>-38.21894387348023,174.71452919000635</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>-38.218237282297714,174.71450875939667</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>-38.217521184083175,174.71451713671843</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>-38.21682740590811,174.714217658494</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>-38.216138531240176,174.71396630668113</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>-38.215422403203156,174.71402067925507</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>-38.21472745980801,174.7138531776793</t>
+        </is>
+      </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>-38.21403125703722,174.71369879079296</t>
+        </is>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R364"/>
+  <dimension ref="A1:R365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19097,7 +19097,9 @@
       <c r="F364" t="n">
         <v>307.9511111111111</v>
       </c>
-      <c r="G364" t="inlineStr"/>
+      <c r="G364" t="n">
+        <v>325.98</v>
+      </c>
       <c r="H364" t="n">
         <v>322.63</v>
       </c>
@@ -19131,6 +19133,66 @@
       <c r="R364" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>326.7171428571428</v>
+      </c>
+      <c r="C365" t="n">
+        <v>309.0833333333333</v>
+      </c>
+      <c r="D365" t="n">
+        <v>300.15</v>
+      </c>
+      <c r="E365" t="n">
+        <v>282.0342857142857</v>
+      </c>
+      <c r="F365" t="n">
+        <v>272.8511111111111</v>
+      </c>
+      <c r="G365" t="n">
+        <v>306.15</v>
+      </c>
+      <c r="H365" t="n">
+        <v>316.07</v>
+      </c>
+      <c r="I365" t="n">
+        <v>314.0855172413793</v>
+      </c>
+      <c r="J365" t="n">
+        <v>308.7455555555555</v>
+      </c>
+      <c r="K365" t="n">
+        <v>292.9266666666667</v>
+      </c>
+      <c r="L365" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="M365" t="n">
+        <v>318.75</v>
+      </c>
+      <c r="N365" t="n">
+        <v>314.31</v>
+      </c>
+      <c r="O365" t="n">
+        <v>315.3266666666667</v>
+      </c>
+      <c r="P365" t="n">
+        <v>319.9933333333333</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>324.0733333333333</v>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19145,7 +19207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B388"/>
+  <dimension ref="A1:B389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23033,6 +23095,16 @@
       </c>
       <c r="B388" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -23206,28 +23278,28 @@
         <v>0.0788</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08959762128118635</v>
+        <v>-0.09563645350045474</v>
       </c>
       <c r="J2" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K2" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001434660941799115</v>
+        <v>0.001645223950129227</v>
       </c>
       <c r="M2" t="n">
-        <v>12.31480631109007</v>
+        <v>12.29435610102971</v>
       </c>
       <c r="N2" t="n">
-        <v>309.5286614326946</v>
+        <v>308.5956702599198</v>
       </c>
       <c r="O2" t="n">
-        <v>17.59342665408574</v>
+        <v>17.56689130893454</v>
       </c>
       <c r="P2" t="n">
-        <v>337.4015861606921</v>
+        <v>337.4643421229621</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23284,28 +23356,28 @@
         <v>0.0683</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.153050888045498</v>
+        <v>-0.1548382432421056</v>
       </c>
       <c r="J3" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007153741217791443</v>
+        <v>0.00736885323146641</v>
       </c>
       <c r="M3" t="n">
-        <v>9.772950009823999</v>
+        <v>9.747965719326475</v>
       </c>
       <c r="N3" t="n">
-        <v>184.6293751955197</v>
+        <v>183.9920415637029</v>
       </c>
       <c r="O3" t="n">
-        <v>13.58783923939048</v>
+        <v>13.56436661122453</v>
       </c>
       <c r="P3" t="n">
-        <v>315.8263355710183</v>
+        <v>315.8447290577418</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23362,28 +23434,28 @@
         <v>0.0596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.140257036467816</v>
+        <v>-0.1432208409780731</v>
       </c>
       <c r="J4" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K4" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005273093973145015</v>
+        <v>0.005534665331982325</v>
       </c>
       <c r="M4" t="n">
-        <v>10.74781368221944</v>
+        <v>10.72408695274862</v>
       </c>
       <c r="N4" t="n">
-        <v>203.9944186704975</v>
+        <v>203.3251779187228</v>
       </c>
       <c r="O4" t="n">
-        <v>14.28266147013565</v>
+        <v>14.25921379034352</v>
       </c>
       <c r="P4" t="n">
-        <v>308.1527675317597</v>
+        <v>308.1836071639565</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23440,28 +23512,28 @@
         <v>0.0418</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08246668421062092</v>
+        <v>-0.09435072084064484</v>
       </c>
       <c r="J5" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K5" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008687610294570991</v>
+        <v>0.001142194409264996</v>
       </c>
       <c r="M5" t="n">
-        <v>15.35422989244703</v>
+        <v>15.3643729774985</v>
       </c>
       <c r="N5" t="n">
-        <v>423.1356624698847</v>
+        <v>422.6262423567107</v>
       </c>
       <c r="O5" t="n">
-        <v>20.57026160431327</v>
+        <v>20.55787543392339</v>
       </c>
       <c r="P5" t="n">
-        <v>301.1961820012894</v>
+        <v>301.3222191010117</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23518,28 +23590,28 @@
         <v>0.0554</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04612657415323325</v>
+        <v>-0.06637454161305736</v>
       </c>
       <c r="J6" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K6" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001557221221532012</v>
+        <v>0.0003236643596470357</v>
       </c>
       <c r="M6" t="n">
-        <v>19.94366035390347</v>
+        <v>19.98671202530929</v>
       </c>
       <c r="N6" t="n">
-        <v>769.229761516371</v>
+        <v>769.1100531635548</v>
       </c>
       <c r="O6" t="n">
-        <v>27.73499164442584</v>
+        <v>27.73283348602437</v>
       </c>
       <c r="P6" t="n">
-        <v>301.4076035368682</v>
+        <v>301.6154686595497</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23590,28 +23662,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1519679827070072</v>
+        <v>-0.1551557434687436</v>
       </c>
       <c r="J7" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K7" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003370728233191178</v>
+        <v>0.003560201254472539</v>
       </c>
       <c r="M7" t="n">
-        <v>14.76268759314422</v>
+        <v>14.72966688650898</v>
       </c>
       <c r="N7" t="n">
-        <v>369.640655455629</v>
+        <v>367.6658434247126</v>
       </c>
       <c r="O7" t="n">
-        <v>19.22604107598933</v>
+        <v>19.17461455739626</v>
       </c>
       <c r="P7" t="n">
-        <v>322.2428399411154</v>
+        <v>322.2760033626633</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23668,28 +23740,28 @@
         <v>0.065</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09892660782505863</v>
+        <v>-0.09720690542284967</v>
       </c>
       <c r="J8" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K8" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001534195715397146</v>
+        <v>0.001492407181800215</v>
       </c>
       <c r="M8" t="n">
-        <v>14.61579795400565</v>
+        <v>14.56928749687327</v>
       </c>
       <c r="N8" t="n">
-        <v>349.1909848383017</v>
+        <v>347.9097169862991</v>
       </c>
       <c r="O8" t="n">
-        <v>18.68665258515558</v>
+        <v>18.6523381104434</v>
       </c>
       <c r="P8" t="n">
-        <v>316.2307571260021</v>
+        <v>316.2128588165302</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23740,28 +23812,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2257266338890354</v>
+        <v>-0.2216051800891349</v>
       </c>
       <c r="J9" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K9" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006734562219999352</v>
+        <v>0.006537158480856453</v>
       </c>
       <c r="M9" t="n">
-        <v>15.24657597843926</v>
+        <v>15.21282066707665</v>
       </c>
       <c r="N9" t="n">
-        <v>398.0270555058196</v>
+        <v>396.7402308654467</v>
       </c>
       <c r="O9" t="n">
-        <v>19.95061541671884</v>
+        <v>19.91833905890365</v>
       </c>
       <c r="P9" t="n">
-        <v>314.0236375154755</v>
+        <v>313.9798035573992</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23818,28 +23890,28 @@
         <v>0.1038</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2785506217934895</v>
+        <v>-0.2769263197891474</v>
       </c>
       <c r="J10" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K10" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01462493120554342</v>
+        <v>0.0145609815320541</v>
       </c>
       <c r="M10" t="n">
-        <v>12.89676508507016</v>
+        <v>12.85769148599205</v>
       </c>
       <c r="N10" t="n">
-        <v>287.6569739735979</v>
+        <v>286.6307849928711</v>
       </c>
       <c r="O10" t="n">
-        <v>16.96045323609006</v>
+        <v>16.93017380279574</v>
       </c>
       <c r="P10" t="n">
-        <v>313.6756653661325</v>
+        <v>313.6588245661305</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23896,28 +23968,28 @@
         <v>0.0857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08166196863525345</v>
+        <v>-0.09106475138080861</v>
       </c>
       <c r="J11" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K11" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001030256502176585</v>
+        <v>0.001287415509154677</v>
       </c>
       <c r="M11" t="n">
-        <v>14.31797718093889</v>
+        <v>14.31814243843429</v>
       </c>
       <c r="N11" t="n">
-        <v>365.7656873827492</v>
+        <v>365.1674711318199</v>
       </c>
       <c r="O11" t="n">
-        <v>19.12500163092148</v>
+        <v>19.10935559174667</v>
       </c>
       <c r="P11" t="n">
-        <v>309.216274348751</v>
+        <v>309.3121457275483</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23974,28 +24046,28 @@
         <v>0.0844</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01337445476061592</v>
+        <v>-0.02530429820290041</v>
       </c>
       <c r="J12" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K12" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L12" t="n">
-        <v>1.739031123759727e-05</v>
+        <v>6.25900619485309e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>18.33339803038666</v>
+        <v>18.33476414466926</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8626309921726</v>
+        <v>556.8819301586759</v>
       </c>
       <c r="O12" t="n">
-        <v>23.61911579615487</v>
+        <v>23.59834591997236</v>
       </c>
       <c r="P12" t="n">
-        <v>302.5520799578666</v>
+        <v>302.6769143531847</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24052,28 +24124,28 @@
         <v>0.0737</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1333247799351685</v>
+        <v>-0.1289516524717031</v>
       </c>
       <c r="J13" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K13" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002104249823312365</v>
+        <v>0.001982785930068731</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11670170429897</v>
+        <v>16.07204020583597</v>
       </c>
       <c r="N13" t="n">
-        <v>470.5771797565146</v>
+        <v>468.8608475843346</v>
       </c>
       <c r="O13" t="n">
-        <v>21.69279096281791</v>
+        <v>21.65319485859615</v>
       </c>
       <c r="P13" t="n">
-        <v>316.1706581085015</v>
+        <v>316.12505595297</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24130,28 +24202,28 @@
         <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08246687322920172</v>
+        <v>0.0726873985936739</v>
       </c>
       <c r="J14" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K14" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001395766883542593</v>
+        <v>0.001090384657307153</v>
       </c>
       <c r="M14" t="n">
-        <v>12.80532013745153</v>
+        <v>12.81202315495407</v>
       </c>
       <c r="N14" t="n">
-        <v>274.9450939947529</v>
+        <v>274.5404626452378</v>
       </c>
       <c r="O14" t="n">
-        <v>16.58146839078955</v>
+        <v>16.5692625860428</v>
       </c>
       <c r="P14" t="n">
-        <v>325.4158609676946</v>
+        <v>325.5160868699202</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24208,28 +24280,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1415580135978595</v>
+        <v>0.1324960981939203</v>
       </c>
       <c r="J15" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K15" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004226930999523315</v>
+        <v>0.003724441122186173</v>
       </c>
       <c r="M15" t="n">
-        <v>11.94334507253472</v>
+        <v>11.94556716483263</v>
       </c>
       <c r="N15" t="n">
-        <v>262.0869571539614</v>
+        <v>261.6743550409236</v>
       </c>
       <c r="O15" t="n">
-        <v>16.18909994885328</v>
+        <v>16.17635172221857</v>
       </c>
       <c r="P15" t="n">
-        <v>324.1747157226478</v>
+        <v>324.2687792933566</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24286,28 +24358,28 @@
         <v>0.0697</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09717926807131307</v>
+        <v>0.08967749417534687</v>
       </c>
       <c r="J16" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K16" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001701883420209382</v>
+        <v>0.00145864691693276</v>
       </c>
       <c r="M16" t="n">
-        <v>13.23081421950775</v>
+        <v>13.22230560658962</v>
       </c>
       <c r="N16" t="n">
-        <v>299.0588810691319</v>
+        <v>298.306354340985</v>
       </c>
       <c r="O16" t="n">
-        <v>17.29331897205195</v>
+        <v>17.27154753752497</v>
       </c>
       <c r="P16" t="n">
-        <v>327.7180979942855</v>
+        <v>327.7975437583204</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24364,28 +24436,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02111153161107769</v>
+        <v>-0.02909931190953937</v>
       </c>
       <c r="J17" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K17" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L17" t="n">
-        <v>7.917730452600136e-05</v>
+        <v>0.0001513964582438021</v>
       </c>
       <c r="M17" t="n">
-        <v>13.41885939426905</v>
+        <v>13.40620638801206</v>
       </c>
       <c r="N17" t="n">
-        <v>313.0273160564686</v>
+        <v>312.1483429066666</v>
       </c>
       <c r="O17" t="n">
-        <v>17.69257799351097</v>
+        <v>17.66772036530652</v>
       </c>
       <c r="P17" t="n">
-        <v>334.9634047508148</v>
+        <v>335.0470196317646</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24423,7 +24495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R364"/>
+  <dimension ref="A1:R365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51514,7 +51586,11 @@
           <t>-38.22186772756295,174.71451420643166</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr"/>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>-38.22110900031121,174.71451995722668</t>
+        </is>
+      </c>
       <c r="H364" t="inlineStr">
         <is>
           <t>-38.22036362491705,174.71452251775943</t>
@@ -51568,6 +51644,98 @@
       <c r="R364" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-38.22458499359323,174.71350823423563</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-38.22393011230943,174.7139042704977</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-38.223258804170264,174.7142031357279</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-38.22260481816141,174.7146045477668</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>-38.22193396776589,174.714906198692</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>-38.2211230952769,174.7147457315186</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>-38.220359764878594,174.714597279368</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>-38.219649756945635,174.71456110839375</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>-38.21894178236305,174.714563464112</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>-38.218226520958886,174.7146851383658</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>-38.21750668973033,174.71471442922024</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>-38.216824945649044,174.7142447745644</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>-38.21611644090885,174.7141975922927</t>
+        </is>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>-38.21541589522652,174.71408881715135</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>-38.21471929516414,174.71393866103512</t>
+        </is>
+      </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>-38.214022052973995,174.71379515707383</t>
+        </is>
+      </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R365"/>
+  <dimension ref="A1:R366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19196,6 +19196,66 @@
         </is>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>329.8042857142857</v>
+      </c>
+      <c r="C366" t="n">
+        <v>310.69</v>
+      </c>
+      <c r="D366" t="n">
+        <v>298.7463636363636</v>
+      </c>
+      <c r="E366" t="n">
+        <v>275.6685714285715</v>
+      </c>
+      <c r="F366" t="n">
+        <v>274.2566666666667</v>
+      </c>
+      <c r="G366" t="n">
+        <v>309.9</v>
+      </c>
+      <c r="H366" t="n">
+        <v>313.0063636363636</v>
+      </c>
+      <c r="I366" t="n">
+        <v>310.0548275862069</v>
+      </c>
+      <c r="J366" t="n">
+        <v>307.3733333333333</v>
+      </c>
+      <c r="K366" t="n">
+        <v>304.3</v>
+      </c>
+      <c r="L366" t="n">
+        <v>292.63</v>
+      </c>
+      <c r="M366" t="n">
+        <v>313.7663636363636</v>
+      </c>
+      <c r="N366" t="n">
+        <v>325.02</v>
+      </c>
+      <c r="O366" t="n">
+        <v>324.4</v>
+      </c>
+      <c r="P366" t="n">
+        <v>323.88</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>325.1</v>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19207,7 +19267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:B390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23105,6 +23165,16 @@
       </c>
       <c r="B389" t="n">
         <v>-0.22</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -24495,7 +24565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R365"/>
+  <dimension ref="A1:R366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51739,6 +51809,98 @@
         </is>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>-38.224579167327974,174.71347375621298</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-38.22392708014775,174.71388632697196</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-38.22326145313509,174.71421881163994</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-38.22261683143082,174.71467563993673</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-38.22193131524766,174.7148905016166</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-38.22112042984788,174.7147030359209</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>-38.22035796215591,174.71463219436203</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>-38.2196469567166,174.71460700527467</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>-38.218940829044975,174.7145790892572</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>-38.218234422359316,174.7145556343816</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>-38.21751295255651,174.71462918219265</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>-38.21681981548821,174.71430131708263</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>-38.21612803838924,174.7140761673662</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>-38.21542572034309,174.71398594895217</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>-38.2147235038256,174.71389459667313</t>
+        </is>
+      </c>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>-38.21402316468464,174.71378351754018</t>
+        </is>
+      </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -23348,28 +23348,28 @@
         <v>0.0788</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09563645350045474</v>
+        <v>-0.09934229411152512</v>
       </c>
       <c r="J2" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001645223950129227</v>
+        <v>0.001787752659193176</v>
       </c>
       <c r="M2" t="n">
-        <v>12.29435610102971</v>
+        <v>12.26373398663113</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5956702599198</v>
+        <v>307.5056957091773</v>
       </c>
       <c r="O2" t="n">
-        <v>17.56689130893454</v>
+        <v>17.53584031944798</v>
       </c>
       <c r="P2" t="n">
-        <v>337.4643421229621</v>
+        <v>337.5029368489932</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23426,28 +23426,28 @@
         <v>0.0683</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1548382432421056</v>
+        <v>-0.1555517654017501</v>
       </c>
       <c r="J3" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K3" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00736885323146641</v>
+        <v>0.007486090576713567</v>
       </c>
       <c r="M3" t="n">
-        <v>9.747965719326475</v>
+        <v>9.717054432388997</v>
       </c>
       <c r="N3" t="n">
-        <v>183.9920415637029</v>
+        <v>183.3368800085706</v>
       </c>
       <c r="O3" t="n">
-        <v>13.56436661122453</v>
+        <v>13.54019497675608</v>
       </c>
       <c r="P3" t="n">
-        <v>315.8447290577418</v>
+        <v>315.8520884984015</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23504,28 +23504,28 @@
         <v>0.0596</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1432208409780731</v>
+        <v>-0.1470821327628725</v>
       </c>
       <c r="J4" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005534665331982325</v>
+        <v>0.005873618454781404</v>
       </c>
       <c r="M4" t="n">
-        <v>10.72408695274862</v>
+        <v>10.70509257983207</v>
       </c>
       <c r="N4" t="n">
-        <v>203.3251779187228</v>
+        <v>202.7089518141941</v>
       </c>
       <c r="O4" t="n">
-        <v>14.25921379034352</v>
+        <v>14.23758939617919</v>
       </c>
       <c r="P4" t="n">
-        <v>308.1836071639565</v>
+        <v>308.2238707704971</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23582,28 +23582,28 @@
         <v>0.0418</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09435072084064484</v>
+        <v>-0.1104450964332266</v>
       </c>
       <c r="J5" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K5" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001142194409264996</v>
+        <v>0.001568308439795718</v>
       </c>
       <c r="M5" t="n">
-        <v>15.3643729774985</v>
+        <v>15.3978989366401</v>
       </c>
       <c r="N5" t="n">
-        <v>422.6262423567107</v>
+        <v>423.0302307853628</v>
       </c>
       <c r="O5" t="n">
-        <v>20.55787543392339</v>
+        <v>20.56769872361424</v>
       </c>
       <c r="P5" t="n">
-        <v>301.3222191010117</v>
+        <v>301.4932752741923</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23660,28 +23660,28 @@
         <v>0.0554</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06637454161305736</v>
+        <v>-0.08519916260502083</v>
       </c>
       <c r="J6" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K6" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003236643596470357</v>
+        <v>0.000535515828573252</v>
       </c>
       <c r="M6" t="n">
-        <v>19.98671202530929</v>
+        <v>20.0235608885038</v>
       </c>
       <c r="N6" t="n">
-        <v>769.1100531635548</v>
+        <v>768.6307332989203</v>
       </c>
       <c r="O6" t="n">
-        <v>27.73283348602437</v>
+        <v>27.72419039934115</v>
       </c>
       <c r="P6" t="n">
-        <v>301.6154686595497</v>
+        <v>301.8091459038475</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23732,28 +23732,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1551557434687436</v>
+        <v>-0.161092061134633</v>
       </c>
       <c r="J7" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K7" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003560201254472539</v>
+        <v>0.003863376960215992</v>
       </c>
       <c r="M7" t="n">
-        <v>14.72966688650898</v>
+        <v>14.711030572635</v>
       </c>
       <c r="N7" t="n">
-        <v>367.6658434247126</v>
+        <v>366.5613959686763</v>
       </c>
       <c r="O7" t="n">
-        <v>19.17461455739626</v>
+        <v>19.14579316635057</v>
       </c>
       <c r="P7" t="n">
-        <v>322.2760033626633</v>
+        <v>322.3377770495029</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23810,28 +23810,28 @@
         <v>0.065</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09720690542284967</v>
+        <v>-0.09767340938863822</v>
       </c>
       <c r="J8" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K8" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001492407181800215</v>
+        <v>0.001517954953010214</v>
       </c>
       <c r="M8" t="n">
-        <v>14.56928749687327</v>
+        <v>14.51783563943156</v>
       </c>
       <c r="N8" t="n">
-        <v>347.9097169862991</v>
+        <v>346.6179844550895</v>
       </c>
       <c r="O8" t="n">
-        <v>18.6523381104434</v>
+        <v>18.61767935203229</v>
       </c>
       <c r="P8" t="n">
-        <v>316.2128588165302</v>
+        <v>316.2177243251256</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23882,28 +23882,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2216051800891349</v>
+        <v>-0.2203168146851699</v>
       </c>
       <c r="J9" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K9" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006537158480856453</v>
+        <v>0.006507902355639916</v>
       </c>
       <c r="M9" t="n">
-        <v>15.21282066707665</v>
+        <v>15.165364841068</v>
       </c>
       <c r="N9" t="n">
-        <v>396.7402308654467</v>
+        <v>395.3506159390406</v>
       </c>
       <c r="O9" t="n">
-        <v>19.91833905890365</v>
+        <v>19.88342565905183</v>
       </c>
       <c r="P9" t="n">
-        <v>313.9798035573992</v>
+        <v>313.9660732719773</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23960,28 +23960,28 @@
         <v>0.1038</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2769263197891474</v>
+        <v>-0.2762649122697104</v>
       </c>
       <c r="J10" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K10" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0145609815320541</v>
+        <v>0.01459659614816389</v>
       </c>
       <c r="M10" t="n">
-        <v>12.85769148599205</v>
+        <v>12.81428367623413</v>
       </c>
       <c r="N10" t="n">
-        <v>286.6307849928711</v>
+        <v>285.5955894429958</v>
       </c>
       <c r="O10" t="n">
-        <v>16.93017380279574</v>
+        <v>16.89957364678162</v>
       </c>
       <c r="P10" t="n">
-        <v>313.6588245661305</v>
+        <v>313.651952637115</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24038,28 +24038,28 @@
         <v>0.0857</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09106475138080861</v>
+        <v>-0.09279956597372668</v>
       </c>
       <c r="J11" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K11" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001287415509154677</v>
+        <v>0.001346184479241175</v>
       </c>
       <c r="M11" t="n">
-        <v>14.31814243843429</v>
+        <v>14.27658002834965</v>
       </c>
       <c r="N11" t="n">
-        <v>365.1674711318199</v>
+        <v>363.8922735003459</v>
       </c>
       <c r="O11" t="n">
-        <v>19.10935559174667</v>
+        <v>19.07596061802251</v>
       </c>
       <c r="P11" t="n">
-        <v>309.3121457275483</v>
+        <v>309.329872552627</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24116,28 +24116,28 @@
         <v>0.0844</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.02530429820290041</v>
+        <v>-0.0318189992934963</v>
       </c>
       <c r="J12" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K12" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L12" t="n">
-        <v>6.25900619485309e-05</v>
+        <v>9.963364535137131e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>18.33476414466926</v>
+        <v>18.30519944048598</v>
       </c>
       <c r="N12" t="n">
-        <v>556.8819301586759</v>
+        <v>555.179863896551</v>
       </c>
       <c r="O12" t="n">
-        <v>23.59834591997236</v>
+        <v>23.5622550681498</v>
       </c>
       <c r="P12" t="n">
-        <v>302.6769143531847</v>
+        <v>302.7452257839326</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24194,28 +24194,28 @@
         <v>0.0737</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1289516524717031</v>
+        <v>-0.1282236566396953</v>
       </c>
       <c r="J13" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K13" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001982785930068731</v>
+        <v>0.001974981033412426</v>
       </c>
       <c r="M13" t="n">
-        <v>16.07204020583597</v>
+        <v>16.01190630392435</v>
       </c>
       <c r="N13" t="n">
-        <v>468.8608475843346</v>
+        <v>467.0189606859559</v>
       </c>
       <c r="O13" t="n">
-        <v>21.65319485859615</v>
+        <v>21.61062147847571</v>
       </c>
       <c r="P13" t="n">
-        <v>316.12505595297</v>
+        <v>316.1174475253463</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24272,28 +24272,28 @@
         <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0726873985936739</v>
+        <v>0.07093175621708955</v>
       </c>
       <c r="J14" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K14" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001090384657307153</v>
+        <v>0.001046350381065819</v>
       </c>
       <c r="M14" t="n">
-        <v>12.81202315495407</v>
+        <v>12.77133878305341</v>
       </c>
       <c r="N14" t="n">
-        <v>274.5404626452378</v>
+        <v>273.4693305091939</v>
       </c>
       <c r="O14" t="n">
-        <v>16.5692625860428</v>
+        <v>16.53690813027616</v>
       </c>
       <c r="P14" t="n">
-        <v>325.5160868699202</v>
+        <v>325.5341194646145</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24350,28 +24350,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1324960981939203</v>
+        <v>0.1301033946286051</v>
       </c>
       <c r="J15" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003724441122186173</v>
+        <v>0.003617989259063203</v>
       </c>
       <c r="M15" t="n">
-        <v>11.94556716483263</v>
+        <v>11.91221910360387</v>
       </c>
       <c r="N15" t="n">
-        <v>261.6743550409236</v>
+        <v>260.7065302663192</v>
       </c>
       <c r="O15" t="n">
-        <v>16.17635172221857</v>
+        <v>16.14640920657962</v>
       </c>
       <c r="P15" t="n">
-        <v>324.2687792933566</v>
+        <v>324.2936697361152</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24428,28 +24428,28 @@
         <v>0.0697</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08967749417534687</v>
+        <v>0.08513110273695347</v>
       </c>
       <c r="J16" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K16" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00145864691693276</v>
+        <v>0.001323911776308417</v>
       </c>
       <c r="M16" t="n">
-        <v>13.22230560658962</v>
+        <v>13.19705339669746</v>
       </c>
       <c r="N16" t="n">
-        <v>298.306354340985</v>
+        <v>297.3082678723312</v>
       </c>
       <c r="O16" t="n">
-        <v>17.27154753752497</v>
+        <v>17.2426293781526</v>
       </c>
       <c r="P16" t="n">
-        <v>327.7975437583204</v>
+        <v>327.8457933783214</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24506,28 +24506,28 @@
         <v>0.06519999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02909931190953937</v>
+        <v>-0.03614106706140074</v>
       </c>
       <c r="J17" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K17" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001513964582438021</v>
+        <v>0.000235093908532491</v>
       </c>
       <c r="M17" t="n">
-        <v>13.40620638801206</v>
+        <v>13.38857493968253</v>
       </c>
       <c r="N17" t="n">
-        <v>312.1483429066666</v>
+        <v>311.1829778120103</v>
       </c>
       <c r="O17" t="n">
-        <v>17.66772036530652</v>
+        <v>17.64037918560739</v>
       </c>
       <c r="P17" t="n">
-        <v>335.0470196317646</v>
+        <v>335.120897165148</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">

--- a/data/nzd0250/nzd0250.xlsx
+++ b/data/nzd0250/nzd0250.xlsx
@@ -23339,13 +23339,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.063</v>
+        <v>0.0247</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0788</v>
+        <v>0.0402</v>
       </c>
       <c r="I2" t="n">
         <v>-0.09929043666010653</v>
@@ -23417,13 +23417,13 @@
         <v>0.9333184678810345</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0562</v>
+        <v>0.033</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0683</v>
+        <v>0.0549</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1555350448899751</v>
@@ -23495,13 +23495,13 @@
         <v>0.866636935762069</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0481</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0596</v>
+        <v>0.101</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1470781291767477</v>
@@ -23573,13 +23573,13 @@
         <v>0.7999554036437091</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.033</v>
+        <v>0.0304</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0418</v>
+        <v>0.0523</v>
       </c>
       <c r="I5" t="n">
         <v>-0.110458492292711</v>
@@ -23651,13 +23651,13 @@
         <v>0.7332738715247435</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0378</v>
+        <v>0.0327</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0554</v>
+        <v>0.0513</v>
       </c>
       <c r="I6" t="n">
         <v>-0.08515710739911586</v>
@@ -23728,9 +23728,15 @@
       <c r="E7" t="n">
         <v>0.6665923394058332</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0747</v>
+      </c>
       <c r="I7" t="n">
         <v>-0.1610920611346332</v>
       </c>
@@ -23801,13 +23807,13 @@
         <v>0.6001212622024108</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0494</v>
+        <v>0.0538</v>
       </c>
       <c r="H8" t="n">
-        <v>0.065</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>-0.09768107267084787</v>
@@ -23878,9 +23884,15 @@
       <c r="E9" t="n">
         <v>0.5334397300835725</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0598</v>
+      </c>
       <c r="I9" t="n">
         <v>-0.2203022206755725</v>
       </c>
@@ -23951,13 +23963,13 @@
         <v>0.4667581979647341</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.079</v>
+        <v>0.054</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1038</v>
+        <v>0.0655</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2762590617461926</v>
@@ -24029,13 +24041,13 @@
         <v>0.4000766658452761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.075</v>
+        <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.0498</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0857</v>
+        <v>0.0655</v>
       </c>
       <c r="I11" t="n">
         <v>-0.09282698406624304</v>
@@ -24107,13 +24119,13 @@
         <v>0.3333951337264377</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0477</v>
+        <v>0.0328</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0844</v>
+        <v>0.0495</v>
       </c>
       <c r="I12" t="n">
         <v>-0.03179193946552977</v>
@@ -24185,13 +24197,13 @@
         <v>0.2667261284760631</v>
       </c>
       <c r="F13" t="n">
-        <v>0.055</v>
+        <v>0.03</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0439</v>
+        <v>0.0264</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0737</v>
+        <v>0.0409</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1282250052316935</v>
@@ -24263,13 +24275,13 @@
         <v>0.2000445963568456</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0344</v>
+        <v>0.0268</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0467</v>
+        <v>0.0412</v>
       </c>
       <c r="I14" t="n">
         <v>0.07093175621708955</v>
@@ -24341,13 +24353,13 @@
         <v>0.133363064237897</v>
       </c>
       <c r="F15" t="n">
-        <v>0.075</v>
+        <v>0.045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.062</v>
+        <v>0.034</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0912</v>
+        <v>0.0643</v>
       </c>
       <c r="I15" t="n">
         <v>0.1300937862785038</v>
@@ -24419,13 +24431,13 @@
         <v>0.06668153211894852</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0562</v>
+        <v>0.0332</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0697</v>
+        <v>0.0569</v>
       </c>
       <c r="I16" t="n">
         <v>0.08513731908851574</v>
@@ -24497,13 +24509,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0541</v>
+        <v>0.0294</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.0556</v>
       </c>
       <c r="I17" t="n">
         <v>-0.03612328309069354</v>
